--- a/GRND.xlsx
+++ b/GRND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60936496-47EB-45E7-9889-BF875C9C8150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9D2ED6-9171-4E99-9FAD-DA0D51F76D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{C53555D3-F937-48EC-9952-B05CC789E765}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{C53555D3-F937-48EC-9952-B05CC789E765}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Grinder</t>
   </si>
@@ -192,9 +192,6 @@
     <t>MAUs</t>
   </si>
   <si>
-    <t>APUs</t>
-  </si>
-  <si>
     <t>ARPU</t>
   </si>
   <si>
@@ -230,22 +227,44 @@
   <si>
     <t>FY31</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Paying User</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -317,29 +336,39 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -363,66 +392,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317994E4-EF0B-437C-9EA5-7E89D168A1E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5727700" y="539750"/>
-          <a:ext cx="38100" cy="4857750"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -437,8 +416,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9385300" y="533400"/>
-          <a:ext cx="38100" cy="4857750"/>
+          <a:off x="11749088" y="304800"/>
+          <a:ext cx="38100" cy="4260850"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -795,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5242E8-85F8-4768-B669-E477004FC652}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -807,101 +786,100 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H3" s="2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
-        <v>12.26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="14">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
-        <v>175.99221399999999</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="9">
+        <v>191.977654</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3">
-        <f>I3*I4</f>
-        <v>2157.6645436399999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H6" s="2" t="s">
+      <c r="J5" s="9">
+        <f>J3*J4</f>
+        <v>3056.2842516800001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="3">
-        <f>16.345+0.605</f>
-        <v>16.95</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H7" s="2" t="s">
+      <c r="J6" s="9">
+        <v>120.825</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="3">
-        <f>15+282.691</f>
-        <v>297.69099999999997</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H8" s="2" t="s">
+      <c r="J7" s="9">
+        <f>268.463+15</f>
+        <v>283.46300000000002</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="3">
-        <f>I5-I6+I7</f>
-        <v>2438.4055436399999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="9">
+        <f>J5-J6+J7</f>
+        <v>3218.9222516800005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -914,13 +892,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE04838-54C2-4DAE-AF07-11E1EE6A30F1}">
-  <dimension ref="A1:AB391"/>
+  <dimension ref="A1:AE391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -930,12 +908,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
@@ -963,201 +941,224 @@
       <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="S2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="3">
         <v>12800</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="3">
         <v>13900</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="3">
         <v>13500</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="3">
         <v>13300</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="3">
         <v>13700</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="3">
         <v>14100</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="3">
         <v>14500</v>
       </c>
-      <c r="J3" s="9">
-        <v>14800</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9">
+      <c r="J3" s="3">
+        <v>14248</v>
+      </c>
+      <c r="K3" s="3">
+        <v>14613</v>
+      </c>
+      <c r="L3" s="3">
+        <v>14861</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9">
         <v>12281</v>
       </c>
-      <c r="N3" s="9">
+      <c r="Q3" s="9">
         <v>13300</v>
       </c>
-      <c r="O3" s="9">
-        <f>AVERAGE(G3:J3)</f>
-        <v>14275</v>
-      </c>
-      <c r="P3" s="9">
-        <f>O3*(1+5%)</f>
-        <v>14988.75</v>
-      </c>
-      <c r="Q3" s="9">
-        <f t="shared" ref="Q3:U3" si="0">P3*(1+5%)</f>
-        <v>15738.1875</v>
-      </c>
       <c r="R3" s="9">
-        <f t="shared" si="0"/>
-        <v>16525.096874999999</v>
+        <v>14248</v>
       </c>
       <c r="S3" s="9">
-        <f t="shared" si="0"/>
-        <v>17351.35171875</v>
+        <f>R3*(1+5%)</f>
+        <v>14960.400000000001</v>
       </c>
       <c r="T3" s="9">
-        <f t="shared" si="0"/>
-        <v>18218.919304687501</v>
+        <f t="shared" ref="T3:X3" si="0">S3*(1+5%)</f>
+        <v>15708.420000000002</v>
       </c>
       <c r="U3" s="9">
         <f t="shared" si="0"/>
-        <v>19129.865269921876</v>
+        <v>16493.841000000004</v>
       </c>
       <c r="V3" s="9">
-        <f>U3*(1+5%)</f>
-        <v>20086.35853341797</v>
-      </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
+        <f t="shared" si="0"/>
+        <v>17318.533050000005</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" si="0"/>
+        <v>18184.459702500008</v>
+      </c>
+      <c r="X3" s="9">
+        <f t="shared" si="0"/>
+        <v>19093.682687625009</v>
+      </c>
+      <c r="Y3" s="9">
+        <f>X3*(1+5%)</f>
+        <v>20048.366822006261</v>
+      </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1.056</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="O4" s="9">
-        <f>AVERAGE(G4:J4)</f>
-        <v>1.14175</v>
-      </c>
-      <c r="P4" s="9">
-        <f>O4*(1+5%)</f>
-        <v>1.1988375</v>
-      </c>
-      <c r="Q4" s="9">
-        <f t="shared" ref="Q4:V4" si="1">P4*(1+5%)</f>
-        <v>1.258779375</v>
-      </c>
-      <c r="R4" s="9">
+      <c r="B4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3">
+        <v>866</v>
+      </c>
+      <c r="D4" s="3">
+        <v>929</v>
+      </c>
+      <c r="E4" s="3">
+        <v>962</v>
+      </c>
+      <c r="F4" s="3">
+        <v>937</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1011</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1056</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1076</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1168</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1225</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="3">
+        <v>788</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>937</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1076</v>
+      </c>
+      <c r="S4" s="3">
+        <f>R4*(1+5%)</f>
+        <v>1129.8</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" ref="T4:Y4" si="1">S4*(1+5%)</f>
+        <v>1186.29</v>
+      </c>
+      <c r="U4" s="3">
         <f t="shared" si="1"/>
-        <v>1.3217183437500002</v>
-      </c>
-      <c r="S4" s="9">
+        <v>1245.6044999999999</v>
+      </c>
+      <c r="V4" s="3">
         <f t="shared" si="1"/>
-        <v>1.3878042609375003</v>
-      </c>
-      <c r="T4" s="9">
+        <v>1307.8847249999999</v>
+      </c>
+      <c r="W4" s="3">
         <f t="shared" si="1"/>
-        <v>1.4571944739843754</v>
-      </c>
-      <c r="U4" s="9">
+        <v>1373.2789612499998</v>
+      </c>
+      <c r="X4" s="3">
         <f t="shared" si="1"/>
-        <v>1.5300541976835942</v>
-      </c>
-      <c r="V4" s="9">
+        <v>1441.9429093125</v>
+      </c>
+      <c r="Y4" s="3">
         <f t="shared" si="1"/>
-        <v>1.6065569075677739</v>
-      </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
+        <v>1514.0400547781251</v>
+      </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" ref="C5:H5" si="2">C7/(C3/1000)</f>
+        <f t="shared" ref="C5:N5" si="2">C7/(C3/1000)</f>
         <v>4.3600781249999994</v>
       </c>
       <c r="D5" s="9">
@@ -1181,61 +1182,78 @@
         <v>5.8400709219858156</v>
       </c>
       <c r="I5" s="9">
-        <v>6.1</v>
+        <f t="shared" si="2"/>
+        <v>6.1603448275862069</v>
       </c>
       <c r="J5" s="9">
-        <v>6.3</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9">
-        <f>M7/(M3/1000)</f>
+        <f t="shared" si="2"/>
+        <v>6.8515581134194301</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="2"/>
+        <v>6.428385683980018</v>
+      </c>
+      <c r="L5" s="9">
+        <f t="shared" si="2"/>
+        <v>7.0129870129870122</v>
+      </c>
+      <c r="M5" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9">
+        <f>P7/(P3/1000)</f>
         <v>15.87940721439622</v>
       </c>
-      <c r="N5" s="9">
-        <f>N7/(N3/1000)</f>
+      <c r="Q5" s="9">
+        <f t="shared" ref="Q5:R5" si="3">Q7/(Q3/1000)</f>
         <v>19.525639097744357</v>
-      </c>
-      <c r="O5" s="9">
-        <f>O7/(O3/1000)</f>
-        <v>23.774430823117338</v>
-      </c>
-      <c r="P5" s="9">
-        <f>O5*(1+10%)</f>
-        <v>26.151873905429074</v>
-      </c>
-      <c r="Q5" s="9">
-        <f t="shared" ref="Q5:V5" si="3">P5*(1+10%)</f>
-        <v>28.767061295971985</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="3"/>
-        <v>31.643767425569187</v>
+        <v>24.188377316114543</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" si="3"/>
-        <v>34.808144168126105</v>
+        <f>R5*(1+10%)</f>
+        <v>26.607215047726001</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" si="3"/>
-        <v>38.288958584938719</v>
+        <f t="shared" ref="T5:Y5" si="4">S5*(1+10%)</f>
+        <v>29.267936552498604</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" si="3"/>
-        <v>42.117854443432591</v>
+        <f t="shared" si="4"/>
+        <v>32.194730207748464</v>
       </c>
       <c r="V5" s="9">
-        <f t="shared" si="3"/>
-        <v>46.329639887775855</v>
-      </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
+        <f t="shared" si="4"/>
+        <v>35.414203228523313</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>38.955623551375645</v>
+      </c>
+      <c r="X5" s="9">
+        <f t="shared" si="4"/>
+        <v>42.851185906513216</v>
+      </c>
+      <c r="Y5" s="9">
+        <f t="shared" si="4"/>
+        <v>47.136304497164538</v>
+      </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1262,8 +1280,11 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1277,7 +1298,7 @@
         <v>70.257999999999996</v>
       </c>
       <c r="F7" s="11">
-        <f>N7-SUM(C7:E7)</f>
+        <f>Q7-SUM(C7:E7)</f>
         <v>72.085999999999984</v>
       </c>
       <c r="G7" s="11">
@@ -1287,61 +1308,66 @@
         <v>82.344999999999999</v>
       </c>
       <c r="I7" s="11">
-        <f>(I3/1000)*I5</f>
-        <v>88.449999999999989</v>
+        <v>89.325000000000003</v>
       </c>
       <c r="J7" s="11">
-        <f>(J3/1000)*J5</f>
-        <v>93.24</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="11">
+        <f>+R7-SUM(G7:I7)</f>
+        <v>97.621000000000038</v>
+      </c>
+      <c r="K7" s="11">
+        <v>93.938000000000002</v>
+      </c>
+      <c r="L7" s="11">
+        <v>104.22</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="11">
         <v>195.01499999999999</v>
       </c>
-      <c r="N7" s="11">
+      <c r="Q7" s="11">
         <v>259.69099999999997</v>
       </c>
-      <c r="O7" s="11">
-        <f>SUM(G7:J7)</f>
-        <v>339.38</v>
-      </c>
-      <c r="P7" s="11">
-        <f>(P3/1000)*P5</f>
-        <v>391.98390000000001</v>
-      </c>
-      <c r="Q7" s="11">
-        <f t="shared" ref="Q7:V7" si="4">(Q3/1000)*Q5</f>
-        <v>452.7414045000001</v>
-      </c>
       <c r="R7" s="11">
-        <f t="shared" si="4"/>
-        <v>522.91632219750011</v>
+        <v>344.63600000000002</v>
       </c>
       <c r="S7" s="11">
-        <f t="shared" si="4"/>
-        <v>603.96835213811266</v>
+        <f>(S3/1000)*S5</f>
+        <v>398.0545800000001</v>
       </c>
       <c r="T7" s="11">
-        <f t="shared" si="4"/>
-        <v>697.58344671952023</v>
+        <f t="shared" ref="T7:Y7" si="5">(T3/1000)*T5</f>
+        <v>459.7530399000002</v>
       </c>
       <c r="U7" s="11">
-        <f t="shared" si="4"/>
-        <v>805.70888096104591</v>
+        <f t="shared" si="5"/>
+        <v>531.01476108450026</v>
       </c>
       <c r="V7" s="11">
-        <f t="shared" si="4"/>
-        <v>930.593757510008</v>
-      </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
+        <f t="shared" si="5"/>
+        <v>613.32204905259789</v>
+      </c>
+      <c r="W7" s="11">
+        <f t="shared" si="5"/>
+        <v>708.3869666557506</v>
+      </c>
+      <c r="X7" s="11">
+        <f t="shared" si="5"/>
+        <v>818.18694648739211</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" si="5"/>
+        <v>945.0059231929381</v>
+      </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1355,7 +1381,7 @@
         <v>18.242999999999999</v>
       </c>
       <c r="F8" s="9">
-        <f>N8-SUM(C8:E8)</f>
+        <f>Q8-SUM(C8:E8)</f>
         <v>18.290000000000006</v>
       </c>
       <c r="G8" s="9">
@@ -1365,66 +1391,71 @@
         <v>20.998999999999999</v>
       </c>
       <c r="I8" s="9">
-        <f>H8*(1+5%)</f>
-        <v>22.048950000000001</v>
-      </c>
-      <c r="J8" s="9">
-        <f>I8*(1+5%)</f>
-        <v>23.151397500000002</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9">
+        <v>22.914999999999999</v>
+      </c>
+      <c r="J8" s="16">
+        <f>+R8-SUM(G8:I8)</f>
+        <v>24.044999999999995</v>
+      </c>
+      <c r="K8" s="9">
+        <v>24.542000000000002</v>
+      </c>
+      <c r="L8" s="9">
+        <v>27.408000000000001</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9">
         <v>51.28</v>
       </c>
-      <c r="N8" s="9">
+      <c r="Q8" s="9">
         <v>67.457999999999998</v>
       </c>
-      <c r="O8" s="9">
-        <f>SUM(G8:J8)</f>
-        <v>85.819347500000006</v>
-      </c>
-      <c r="P8" s="9">
-        <f>O8*(1+3%)</f>
-        <v>88.393927925000014</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" ref="Q8:V8" si="5">P8*(1+3%)</f>
-        <v>91.045745762750016</v>
-      </c>
       <c r="R8" s="9">
-        <f t="shared" si="5"/>
-        <v>93.77711813563252</v>
+        <v>87.578999999999994</v>
       </c>
       <c r="S8" s="9">
-        <f t="shared" si="5"/>
-        <v>96.590431679701496</v>
+        <f>R8*(1+3%)</f>
+        <v>90.206369999999993</v>
       </c>
       <c r="T8" s="9">
-        <f t="shared" si="5"/>
-        <v>99.488144630092549</v>
+        <f t="shared" ref="T8:Y8" si="6">S8*(1+3%)</f>
+        <v>92.912561099999991</v>
       </c>
       <c r="U8" s="9">
-        <f t="shared" si="5"/>
-        <v>102.47278896899533</v>
+        <f t="shared" si="6"/>
+        <v>95.699937932999987</v>
       </c>
       <c r="V8" s="9">
-        <f t="shared" si="5"/>
-        <v>105.5469726380652</v>
-      </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
+        <f t="shared" si="6"/>
+        <v>98.570936070989987</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="6"/>
+        <v>101.52806415311969</v>
+      </c>
+      <c r="X8" s="9">
+        <f t="shared" si="6"/>
+        <v>104.57390607771327</v>
+      </c>
+      <c r="Y8" s="9">
+        <f t="shared" si="6"/>
+        <v>107.71112326004467</v>
+      </c>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" ref="C9:G9" si="6">C7-C8</f>
+        <f t="shared" ref="C9:G9" si="7">C7-C8</f>
         <v>40.994</v>
       </c>
       <c r="D9" s="9">
@@ -1432,15 +1463,15 @@
         <v>45.427999999999997</v>
       </c>
       <c r="E9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.015000000000001</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>53.795999999999978</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55.724999999999994</v>
       </c>
       <c r="H9" s="9">
@@ -1448,63 +1479,78 @@
         <v>61.346000000000004</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ref="I9:J9" si="7">I7-I8</f>
-        <v>66.401049999999984</v>
+        <f t="shared" ref="I9:N9" si="8">I7-I8</f>
+        <v>66.41</v>
       </c>
       <c r="J9" s="9">
-        <f t="shared" si="7"/>
-        <v>70.088602499999993</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+        <f t="shared" si="8"/>
+        <v>73.57600000000005</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="8"/>
+        <v>69.396000000000001</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="8"/>
+        <v>76.811999999999998</v>
+      </c>
       <c r="M9" s="9">
-        <f t="shared" ref="M9" si="8">M7-M8</f>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9">
+        <f t="shared" ref="P9" si="9">P7-P8</f>
         <v>143.73499999999999</v>
       </c>
-      <c r="N9" s="9">
-        <f t="shared" ref="N9" si="9">N7-N8</f>
+      <c r="Q9" s="9">
+        <f t="shared" ref="Q9" si="10">Q7-Q8</f>
         <v>192.23299999999998</v>
       </c>
-      <c r="O9" s="9">
-        <f t="shared" ref="O9" si="10">O7-O8</f>
-        <v>253.5606525</v>
-      </c>
-      <c r="P9" s="9">
-        <f t="shared" ref="P9" si="11">P7-P8</f>
-        <v>303.58997207499999</v>
-      </c>
-      <c r="Q9" s="9">
-        <f t="shared" ref="Q9" si="12">Q7-Q8</f>
-        <v>361.69565873725008</v>
-      </c>
       <c r="R9" s="9">
-        <f t="shared" ref="R9" si="13">R7-R8</f>
-        <v>429.13920406186759</v>
+        <f t="shared" ref="R9" si="11">R7-R8</f>
+        <v>257.05700000000002</v>
       </c>
       <c r="S9" s="9">
-        <f t="shared" ref="S9" si="14">S7-S8</f>
-        <v>507.37792045841115</v>
+        <f t="shared" ref="S9" si="12">S7-S8</f>
+        <v>307.84821000000011</v>
       </c>
       <c r="T9" s="9">
-        <f t="shared" ref="T9" si="15">T7-T8</f>
-        <v>598.09530208942772</v>
+        <f t="shared" ref="T9" si="13">T7-T8</f>
+        <v>366.8404788000002</v>
       </c>
       <c r="U9" s="9">
-        <f t="shared" ref="U9" si="16">U7-U8</f>
-        <v>703.23609199205055</v>
+        <f t="shared" ref="U9" si="14">U7-U8</f>
+        <v>435.31482315150026</v>
       </c>
       <c r="V9" s="9">
-        <f t="shared" ref="V9" si="17">V7-V8</f>
-        <v>825.0467848719428</v>
-      </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
+        <f t="shared" ref="V9" si="15">V7-V8</f>
+        <v>514.75111298160789</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" ref="W9" si="16">W7-W8</f>
+        <v>606.85890250263094</v>
+      </c>
+      <c r="X9" s="9">
+        <f t="shared" ref="X9" si="17">X7-X8</f>
+        <v>713.61304040967889</v>
+      </c>
+      <c r="Y9" s="9">
+        <f t="shared" ref="Y9" si="18">Y7-Y8</f>
+        <v>837.2947999328934</v>
+      </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1518,7 +1564,7 @@
         <v>16.420000000000002</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" ref="F10:F12" si="18">N10-SUM(C10:E10)</f>
+        <f>Q10-SUM(C10:E10)</f>
         <v>27.893999999999998</v>
       </c>
       <c r="G10" s="9">
@@ -1528,61 +1574,66 @@
         <v>24.802</v>
       </c>
       <c r="I10" s="9">
-        <f>H10*(1-5%)</f>
-        <v>23.561899999999998</v>
-      </c>
-      <c r="J10" s="9">
-        <f>I10*(1-5%)</f>
-        <v>22.383804999999995</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9">
+        <v>24.975999999999999</v>
+      </c>
+      <c r="J10" s="16">
+        <f>+R10-SUM(G10:I10)</f>
+        <v>38.355000000000004</v>
+      </c>
+      <c r="K10" s="9">
+        <v>30.24</v>
+      </c>
+      <c r="L10" s="9">
+        <v>36.457000000000001</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9">
         <v>75.295000000000002</v>
       </c>
-      <c r="N10" s="9">
+      <c r="Q10" s="9">
         <v>80.417000000000002</v>
       </c>
-      <c r="O10" s="9">
-        <f>SUM(G10:J10)</f>
-        <v>97.356704999999991</v>
-      </c>
-      <c r="P10" s="9">
-        <f>O10*(1-2%)</f>
-        <v>95.409570899999991</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" ref="Q10:V10" si="19">P10*(1-2%)</f>
-        <v>93.50137948199999</v>
-      </c>
       <c r="R10" s="9">
-        <f t="shared" si="19"/>
-        <v>91.631351892359987</v>
+        <v>114.742</v>
       </c>
       <c r="S10" s="9">
-        <f t="shared" si="19"/>
-        <v>89.798724854512784</v>
+        <f>R10*(1-2%)</f>
+        <v>112.44716</v>
       </c>
       <c r="T10" s="9">
-        <f t="shared" si="19"/>
-        <v>88.002750357422528</v>
+        <f t="shared" ref="T10:Y10" si="19">S10*(1-2%)</f>
+        <v>110.1982168</v>
       </c>
       <c r="U10" s="9">
         <f t="shared" si="19"/>
-        <v>86.242695350274076</v>
+        <v>107.994252464</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" si="19"/>
-        <v>84.517841443268594</v>
-      </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
+        <v>105.83436741471999</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="19"/>
+        <v>103.71768006642559</v>
+      </c>
+      <c r="X10" s="9">
+        <f t="shared" si="19"/>
+        <v>101.64332646509708</v>
+      </c>
+      <c r="Y10" s="9">
+        <f t="shared" si="19"/>
+        <v>99.610459935795134</v>
+      </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1647,7 @@
         <v>13.27</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="18"/>
+        <f>Q11-SUM(C11:E11)</f>
         <v>4.3510000000000026</v>
       </c>
       <c r="G11" s="9">
@@ -1606,61 +1657,66 @@
         <v>7.7539999999999996</v>
       </c>
       <c r="I11" s="9">
-        <f>H11*(1+5%)</f>
-        <v>8.1417000000000002</v>
-      </c>
-      <c r="J11" s="9">
-        <f>I11*(1+5%)</f>
-        <v>8.5487850000000005</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9">
+        <v>8.8059999999999992</v>
+      </c>
+      <c r="J11" s="16">
+        <f>+R11-SUM(G11:I11)</f>
+        <v>10.506000000000004</v>
+      </c>
+      <c r="K11" s="9">
+        <v>10.287000000000001</v>
+      </c>
+      <c r="L11" s="9">
+        <v>12.941000000000001</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9">
         <v>17.899999999999999</v>
       </c>
-      <c r="N11" s="9">
+      <c r="Q11" s="9">
         <v>29.327000000000002</v>
       </c>
-      <c r="O11" s="9">
-        <f t="shared" ref="O11:O12" si="20">SUM(G11:J11)</f>
-        <v>30.185485</v>
-      </c>
-      <c r="P11" s="9">
-        <f>O11*(1+5%)</f>
-        <v>31.694759250000001</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="shared" ref="Q11:V11" si="21">P11*(1+5%)</f>
-        <v>33.279497212500004</v>
-      </c>
       <c r="R11" s="9">
-        <f t="shared" si="21"/>
-        <v>34.943472073125008</v>
+        <v>32.807000000000002</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="21"/>
-        <v>36.690645676781259</v>
+        <f>R11*(1+5%)</f>
+        <v>34.447350000000007</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="21"/>
-        <v>38.525177960620326</v>
+        <f t="shared" ref="T11:Y11" si="20">S11*(1+5%)</f>
+        <v>36.169717500000012</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="21"/>
-        <v>40.451436858651341</v>
+        <f t="shared" si="20"/>
+        <v>37.978203375000014</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" si="21"/>
-        <v>42.474008701583912</v>
-      </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+        <f t="shared" si="20"/>
+        <v>39.877113543750013</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="20"/>
+        <v>41.870969220937518</v>
+      </c>
+      <c r="X11" s="9">
+        <f t="shared" si="20"/>
+        <v>43.964517681984397</v>
+      </c>
+      <c r="Y11" s="9">
+        <f t="shared" si="20"/>
+        <v>46.16274356608362</v>
+      </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1674,7 +1730,7 @@
         <v>5.7530000000000001</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="18"/>
+        <f>Q12-SUM(C12:E12)</f>
         <v>5.1960000000000015</v>
       </c>
       <c r="G12" s="9">
@@ -1684,59 +1740,66 @@
         <v>4.2350000000000003</v>
       </c>
       <c r="I12" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="J12" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9">
+        <v>4.2409999999999997</v>
+      </c>
+      <c r="J12" s="16">
+        <f>+R12-SUM(G12:I12)</f>
+        <v>4.3150000000000013</v>
+      </c>
+      <c r="K12" s="9">
+        <v>3.4769999999999999</v>
+      </c>
+      <c r="L12" s="9">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9">
         <v>37.505000000000003</v>
       </c>
-      <c r="N12" s="9">
+      <c r="Q12" s="9">
         <v>27.041</v>
       </c>
-      <c r="O12" s="9">
-        <f t="shared" si="20"/>
-        <v>16.753999999999998</v>
-      </c>
-      <c r="P12" s="9">
-        <f>O12</f>
-        <v>16.753999999999998</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="shared" ref="Q12:V12" si="22">P12</f>
-        <v>16.753999999999998</v>
-      </c>
       <c r="R12" s="9">
-        <f t="shared" si="22"/>
-        <v>16.753999999999998</v>
+        <v>16.91</v>
       </c>
       <c r="S12" s="9">
-        <f t="shared" si="22"/>
-        <v>16.753999999999998</v>
+        <f>R12</f>
+        <v>16.91</v>
       </c>
       <c r="T12" s="9">
-        <f t="shared" si="22"/>
-        <v>16.753999999999998</v>
+        <f t="shared" ref="T12:Y12" si="21">S12</f>
+        <v>16.91</v>
       </c>
       <c r="U12" s="9">
-        <f t="shared" si="22"/>
-        <v>16.753999999999998</v>
+        <f t="shared" si="21"/>
+        <v>16.91</v>
       </c>
       <c r="V12" s="9">
-        <f t="shared" si="22"/>
-        <v>16.753999999999998</v>
-      </c>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
+        <f t="shared" si="21"/>
+        <v>16.91</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" si="21"/>
+        <v>16.91</v>
+      </c>
+      <c r="X12" s="9">
+        <f t="shared" si="21"/>
+        <v>16.91</v>
+      </c>
+      <c r="Y12" s="9">
+        <f t="shared" si="21"/>
+        <v>16.91</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1745,19 +1808,19 @@
         <v>8.5910000000000011</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ref="D13:G13" si="23">D9-SUM(D10:D12)</f>
+        <f t="shared" ref="D13:G13" si="22">D9-SUM(D10:D12)</f>
         <v>13.929999999999996</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16.572000000000003</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>16.354999999999976</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>19.255999999999993</v>
       </c>
       <c r="H13" s="9">
@@ -1765,63 +1828,78 @@
         <v>24.555000000000007</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ref="I13:J13" si="24">I9-SUM(I10:I12)</f>
-        <v>30.497449999999986</v>
+        <f t="shared" ref="I13:N13" si="23">I9-SUM(I10:I12)</f>
+        <v>28.387</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="24"/>
-        <v>34.956012499999993</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+        <f t="shared" si="23"/>
+        <v>20.400000000000048</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="23"/>
+        <v>25.392000000000003</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="23"/>
+        <v>24.345999999999997</v>
+      </c>
       <c r="M13" s="9">
-        <f t="shared" ref="M13" si="25">M9-SUM(M10:M12)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9">
+        <f t="shared" ref="P13" si="24">P9-SUM(P10:P12)</f>
         <v>13.034999999999997</v>
       </c>
-      <c r="N13" s="9">
-        <f t="shared" ref="N13" si="26">N9-SUM(N10:N12)</f>
+      <c r="Q13" s="9">
+        <f t="shared" ref="Q13" si="25">Q9-SUM(Q10:Q12)</f>
         <v>55.447999999999979</v>
       </c>
-      <c r="O13" s="9">
-        <f t="shared" ref="O13" si="27">O9-SUM(O10:O12)</f>
-        <v>109.26446250000001</v>
-      </c>
-      <c r="P13" s="9">
-        <f t="shared" ref="P13" si="28">P9-SUM(P10:P12)</f>
-        <v>159.73164192499999</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="shared" ref="Q13" si="29">Q9-SUM(Q10:Q12)</f>
-        <v>218.1607820427501</v>
-      </c>
       <c r="R13" s="9">
-        <f t="shared" ref="R13" si="30">R9-SUM(R10:R12)</f>
-        <v>285.81038009638257</v>
+        <f t="shared" ref="R13" si="26">R9-SUM(R10:R12)</f>
+        <v>92.598000000000013</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" ref="S13" si="31">S9-SUM(S10:S12)</f>
-        <v>364.13454992711712</v>
+        <f t="shared" ref="S13" si="27">S9-SUM(S10:S12)</f>
+        <v>144.04370000000011</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" ref="T13" si="32">T9-SUM(T10:T12)</f>
-        <v>454.81337377138487</v>
+        <f t="shared" ref="T13" si="28">T9-SUM(T10:T12)</f>
+        <v>203.5625445000002</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" ref="U13" si="33">U9-SUM(U10:U12)</f>
-        <v>559.78795978312519</v>
+        <f t="shared" ref="U13" si="29">U9-SUM(U10:U12)</f>
+        <v>272.43236731250022</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" ref="V13" si="34">V9-SUM(V10:V12)</f>
-        <v>681.30093472709029</v>
-      </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
+        <f t="shared" ref="V13" si="30">V9-SUM(V10:V12)</f>
+        <v>352.1296320231379</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" ref="W13" si="31">W9-SUM(W10:W12)</f>
+        <v>444.36025321526785</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" ref="X13" si="32">X9-SUM(X10:X12)</f>
+        <v>551.09519626259748</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" ref="Y13" si="33">Y9-SUM(Y10:Y12)</f>
+        <v>674.61159643101462</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1835,7 +1913,7 @@
         <v>11.984999999999999</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" ref="F14:F16" si="35">N14-SUM(C14:E14)</f>
+        <f>Q14-SUM(C14:E14)</f>
         <v>10.311999999999998</v>
       </c>
       <c r="G14" s="9">
@@ -1845,61 +1923,66 @@
         <v>6.6689999999999996</v>
       </c>
       <c r="I14" s="9">
-        <f>H14*(1-2%)</f>
-        <v>6.5356199999999998</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" ref="J14" si="36">I14*(1-2%)</f>
-        <v>6.4049075999999996</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="J14" s="16">
+        <f>+R14-SUM(G14:I14)</f>
+        <v>5.3620000000000019</v>
+      </c>
+      <c r="K14" s="9">
+        <v>3.875</v>
+      </c>
+      <c r="L14" s="9">
+        <v>3.5640000000000001</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9">
         <v>31.538</v>
       </c>
-      <c r="N14" s="9">
+      <c r="Q14" s="9">
         <v>46.006999999999998</v>
       </c>
-      <c r="O14" s="9">
-        <f t="shared" ref="O14:O16" si="37">SUM(G14:J14)</f>
-        <v>26.794527600000002</v>
-      </c>
-      <c r="P14" s="9">
-        <f>O14*(1-2%)</f>
-        <v>26.258637048000001</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="shared" ref="Q14:V14" si="38">P14*(1-2%)</f>
-        <v>25.733464307039998</v>
-      </c>
       <c r="R14" s="9">
-        <f t="shared" si="38"/>
-        <v>25.218795020899197</v>
+        <v>25.616</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" si="38"/>
-        <v>24.714419120481214</v>
+        <f>R14*(1-2%)</f>
+        <v>25.103680000000001</v>
       </c>
       <c r="T14" s="9">
-        <f t="shared" si="38"/>
-        <v>24.220130738071589</v>
+        <f t="shared" ref="T14:Y14" si="34">S14*(1-2%)</f>
+        <v>24.601606400000001</v>
       </c>
       <c r="U14" s="9">
-        <f t="shared" si="38"/>
-        <v>23.735728123310157</v>
+        <f t="shared" si="34"/>
+        <v>24.109574272</v>
       </c>
       <c r="V14" s="9">
-        <f t="shared" si="38"/>
-        <v>23.261013560843953</v>
-      </c>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
+        <f t="shared" si="34"/>
+        <v>23.627382786559998</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="34"/>
+        <v>23.154835130828797</v>
+      </c>
+      <c r="X14" s="9">
+        <f t="shared" si="34"/>
+        <v>22.691738428212222</v>
+      </c>
+      <c r="Y14" s="9">
+        <f t="shared" si="34"/>
+        <v>22.237903659647976</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1913,7 +1996,7 @@
         <v>-0.39</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="35"/>
+        <f>Q15-SUM(C15:E15)</f>
         <v>-11.398999999999999</v>
       </c>
       <c r="G15" s="9">
@@ -1923,60 +2006,67 @@
         <v>-0.22700000000000001</v>
       </c>
       <c r="I15" s="9">
-        <v>-2</v>
-      </c>
-      <c r="J15" s="9">
-        <v>-2</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J15" s="16">
+        <f>+R15-SUM(G15:I15)</f>
+        <v>-0.43899999999999995</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0.51</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9">
         <v>-2.7989999999999999</v>
       </c>
-      <c r="N15" s="9">
+      <c r="Q15" s="9">
         <f>0.085-11.582</f>
         <v>-11.497</v>
       </c>
-      <c r="O15" s="9">
-        <f t="shared" si="37"/>
-        <v>-4.3439999999999994</v>
-      </c>
-      <c r="P15" s="9">
-        <f>O15</f>
-        <v>-4.3439999999999994</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="shared" ref="Q15:V15" si="39">P15</f>
-        <v>-4.3439999999999994</v>
-      </c>
       <c r="R15" s="9">
-        <f t="shared" si="39"/>
-        <v>-4.3439999999999994</v>
+        <v>-0.71499999999999997</v>
       </c>
       <c r="S15" s="9">
-        <f t="shared" si="39"/>
-        <v>-4.3439999999999994</v>
+        <f>R15</f>
+        <v>-0.71499999999999997</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" si="39"/>
-        <v>-4.3439999999999994</v>
+        <f t="shared" ref="T15:Y15" si="35">S15</f>
+        <v>-0.71499999999999997</v>
       </c>
       <c r="U15" s="9">
-        <f t="shared" si="39"/>
-        <v>-4.3439999999999994</v>
+        <f t="shared" si="35"/>
+        <v>-0.71499999999999997</v>
       </c>
       <c r="V15" s="9">
-        <f t="shared" si="39"/>
-        <v>-4.3439999999999994</v>
-      </c>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
+        <f t="shared" si="35"/>
+        <v>-0.71499999999999997</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="35"/>
+        <v>-0.71499999999999997</v>
+      </c>
+      <c r="X15" s="9">
+        <f t="shared" si="35"/>
+        <v>-0.71499999999999997</v>
+      </c>
+      <c r="Y15" s="9">
+        <f t="shared" si="35"/>
+        <v>-0.71499999999999997</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1990,7 +2080,7 @@
         <v>3.3620000000000001</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="35"/>
+        <f>Q16-SUM(C16:E16)</f>
         <v>38.107999999999997</v>
       </c>
       <c r="G16" s="9">
@@ -2000,64 +2090,71 @@
         <v>35.118000000000002</v>
       </c>
       <c r="I16" s="9">
-        <v>35</v>
-      </c>
-      <c r="J16" s="9">
-        <v>35</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9">
+        <v>-8.2189999999999994</v>
+      </c>
+      <c r="J16" s="16">
+        <f>+R16-SUM(G16:I16)</f>
+        <v>138.97799999999998</v>
+      </c>
+      <c r="K16" s="9">
+        <v>-9.9049999999999994</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9">
         <v>-21.295000000000002</v>
       </c>
-      <c r="N16" s="9">
+      <c r="Q16" s="9">
         <v>49.689</v>
       </c>
-      <c r="O16" s="9">
-        <f t="shared" si="37"/>
-        <v>123.798</v>
-      </c>
-      <c r="P16" s="9">
-        <f>O16*(1-10%)</f>
-        <v>111.4182</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="shared" ref="Q16:V16" si="40">P16*(1-10%)</f>
-        <v>100.27638</v>
-      </c>
       <c r="R16" s="9">
-        <f t="shared" si="40"/>
-        <v>90.248742000000007</v>
+        <v>184.55699999999999</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="40"/>
-        <v>81.223867800000008</v>
+        <f>R16*(1-10%)</f>
+        <v>166.10129999999998</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" si="40"/>
-        <v>73.101481020000008</v>
+        <f t="shared" ref="T16:Y16" si="36">S16*(1-10%)</f>
+        <v>149.49116999999998</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" si="40"/>
-        <v>65.791332918000009</v>
+        <f t="shared" si="36"/>
+        <v>134.54205299999998</v>
       </c>
       <c r="V16" s="9">
-        <f t="shared" si="40"/>
-        <v>59.212199626200011</v>
-      </c>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
+        <f t="shared" si="36"/>
+        <v>121.08784769999998</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="36"/>
+        <v>108.97906292999998</v>
+      </c>
+      <c r="X16" s="9">
+        <f t="shared" si="36"/>
+        <v>98.081156636999992</v>
+      </c>
+      <c r="Y16" s="9">
+        <f t="shared" si="36"/>
+        <v>88.273040973299999</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" ref="C17:G17" si="41">C13-C14+C15-C16</f>
+        <f t="shared" ref="C17:G17" si="37">C13-C14+C15-C16</f>
         <v>-17.395999999999997</v>
       </c>
       <c r="D17" s="9">
@@ -2065,15 +2162,15 @@
         <v>8.2799999999999958</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>0.83500000000000352</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>-43.46400000000002</v>
       </c>
       <c r="G17" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="37"/>
         <v>-6.7260000000000062</v>
       </c>
       <c r="H17" s="9">
@@ -2081,63 +2178,78 @@
         <v>-17.458999999999996</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" ref="I17:J17" si="42">I13-I14+I15-I16</f>
-        <v>-13.038170000000015</v>
+        <f t="shared" ref="I17:N17" si="38">I13-I14+I15-I16</f>
+        <v>30.274000000000001</v>
       </c>
       <c r="J17" s="9">
-        <f t="shared" si="42"/>
-        <v>-8.4488951000000085</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+        <f t="shared" si="38"/>
+        <v>-124.37899999999993</v>
+      </c>
+      <c r="K17" s="9">
+        <f t="shared" si="38"/>
+        <v>31.57</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="38"/>
+        <v>21.291999999999998</v>
+      </c>
       <c r="M17" s="9">
-        <f t="shared" ref="M17" si="43">M13-M14+M15-M16</f>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9">
+        <f t="shared" ref="P17" si="39">P13-P14+P15-P16</f>
         <v>-7.0000000000014495E-3</v>
       </c>
-      <c r="N17" s="9">
-        <f t="shared" ref="N17" si="44">N13-N14+N15-N16</f>
+      <c r="Q17" s="9">
+        <f t="shared" ref="Q17" si="40">Q13-Q14+Q15-Q16</f>
         <v>-51.745000000000019</v>
       </c>
-      <c r="O17" s="9">
-        <f t="shared" ref="O17" si="45">O13-O14+O15-O16</f>
-        <v>-45.672065099999998</v>
-      </c>
-      <c r="P17" s="9">
-        <f t="shared" ref="P17" si="46">P13-P14+P15-P16</f>
-        <v>17.710804877000001</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="shared" ref="Q17" si="47">Q13-Q14+Q15-Q16</f>
-        <v>87.806937735710093</v>
-      </c>
       <c r="R17" s="9">
-        <f t="shared" ref="R17" si="48">R13-R14+R15-R16</f>
-        <v>165.99884307548336</v>
+        <f t="shared" ref="R17" si="41">R13-R14+R15-R16</f>
+        <v>-118.28999999999998</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" ref="S17" si="49">S13-S14+S15-S16</f>
-        <v>253.85226300663589</v>
+        <f t="shared" ref="S17" si="42">S13-S14+S15-S16</f>
+        <v>-47.876279999999866</v>
       </c>
       <c r="T17" s="9">
-        <f t="shared" ref="T17" si="50">T13-T14+T15-T16</f>
-        <v>353.1477620133133</v>
+        <f t="shared" ref="T17" si="43">T13-T14+T15-T16</f>
+        <v>28.754768100000206</v>
       </c>
       <c r="U17" s="9">
-        <f t="shared" ref="U17" si="51">U13-U14+U15-U16</f>
-        <v>465.91689874181492</v>
+        <f t="shared" ref="U17" si="44">U13-U14+U15-U16</f>
+        <v>113.06574004050023</v>
       </c>
       <c r="V17" s="9">
-        <f t="shared" ref="V17" si="52">V13-V14+V15-V16</f>
-        <v>594.4837215400463</v>
-      </c>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
+        <f t="shared" ref="V17" si="45">V13-V14+V15-V16</f>
+        <v>206.69940153657791</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" ref="W17" si="46">W13-W14+W15-W16</f>
+        <v>311.51135515443906</v>
+      </c>
+      <c r="X17" s="9">
+        <f t="shared" ref="X17" si="47">X13-X14+X15-X16</f>
+        <v>429.6073011973852</v>
+      </c>
+      <c r="Y17" s="9">
+        <f t="shared" ref="Y17" si="48">Y13-Y14+Y15-Y16</f>
+        <v>563.38565179806665</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2151,7 +2263,7 @@
         <v>1.272</v>
       </c>
       <c r="F18" s="9">
-        <f>N18-SUM(C18:E18)</f>
+        <f>Q18-SUM(C18:E18)</f>
         <v>1.2989999999999995</v>
       </c>
       <c r="G18" s="9">
@@ -2161,82 +2273,87 @@
         <v>4.9649999999999999</v>
       </c>
       <c r="I18" s="9">
-        <f>I17*-50%</f>
-        <v>6.5190850000000076</v>
-      </c>
-      <c r="J18" s="9">
-        <f>J17*-50%</f>
-        <v>4.2244475500000043</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9">
+        <v>5.5933000000000002</v>
+      </c>
+      <c r="J18" s="16">
+        <f>+R18-SUM(G18:I18)</f>
+        <v>-4.5732999999999979</v>
+      </c>
+      <c r="K18" s="9">
+        <v>4.5510000000000002</v>
+      </c>
+      <c r="L18" s="9">
+        <v>4.6539999999999999</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9">
         <v>-0.85899999999999999</v>
       </c>
-      <c r="N18" s="9">
+      <c r="Q18" s="9">
         <v>4.0229999999999997</v>
       </c>
-      <c r="O18" s="9">
-        <f t="shared" ref="O18" si="53">SUM(G18:J18)</f>
-        <v>22.434532550000011</v>
-      </c>
-      <c r="P18" s="9">
-        <f>P17*17%</f>
-        <v>3.0108368290900005</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="shared" ref="Q18:V18" si="54">Q17*17%</f>
-        <v>14.927179415070716</v>
-      </c>
       <c r="R18" s="9">
-        <f t="shared" si="54"/>
-        <v>28.219803322832174</v>
+        <v>12.711</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="54"/>
-        <v>43.154884711128105</v>
+        <f>S17*17%</f>
+        <v>-8.1389675999999778</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" si="54"/>
-        <v>60.035119542263267</v>
+        <f t="shared" ref="T18:Y18" si="49">T17*17%</f>
+        <v>4.888310577000035</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="54"/>
-        <v>79.205872786108543</v>
+        <f t="shared" si="49"/>
+        <v>19.221175806885039</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="54"/>
-        <v>101.06223266180788</v>
-      </c>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
+        <f t="shared" si="49"/>
+        <v>35.138898261218245</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="49"/>
+        <v>52.956930376254647</v>
+      </c>
+      <c r="X18" s="9">
+        <f t="shared" si="49"/>
+        <v>73.033241203555491</v>
+      </c>
+      <c r="Y18" s="9">
+        <f t="shared" si="49"/>
+        <v>95.775560805671333</v>
+      </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" ref="C19:G19" si="55">C17-C18</f>
+        <f t="shared" ref="C19:G19" si="50">C17-C18</f>
         <v>-32.899000000000001</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>22.330999999999996</v>
       </c>
       <c r="E19" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>-0.4369999999999965</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>-44.763000000000019</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>-13.452000000000005</v>
       </c>
       <c r="H19" s="9">
@@ -2244,63 +2361,78 @@
         <v>-22.423999999999996</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" ref="I19:J19" si="56">I17-I18</f>
-        <v>-19.557255000000023</v>
+        <f t="shared" ref="I19:N19" si="51">I17-I18</f>
+        <v>24.680700000000002</v>
       </c>
       <c r="J19" s="9">
-        <f t="shared" si="56"/>
-        <v>-12.673342650000013</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+        <f t="shared" si="51"/>
+        <v>-119.80569999999993</v>
+      </c>
+      <c r="K19" s="9">
+        <f t="shared" si="51"/>
+        <v>27.018999999999998</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="51"/>
+        <v>16.637999999999998</v>
+      </c>
       <c r="M19" s="9">
-        <f>M17-M18</f>
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9">
+        <f>P17-P18</f>
         <v>0.85199999999999854</v>
       </c>
-      <c r="N19" s="9">
-        <f>N17-N18</f>
+      <c r="Q19" s="9">
+        <f>Q17-Q18</f>
         <v>-55.768000000000015</v>
       </c>
-      <c r="O19" s="9">
-        <f>O17-O18</f>
-        <v>-68.106597650000012</v>
-      </c>
-      <c r="P19" s="9">
-        <f t="shared" ref="P19:V19" si="57">P17-P18</f>
-        <v>14.699968047910001</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="shared" si="57"/>
-        <v>72.879758320639382</v>
-      </c>
       <c r="R19" s="9">
-        <f t="shared" si="57"/>
-        <v>137.77903975265119</v>
+        <f>R17-R18</f>
+        <v>-131.00099999999998</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="57"/>
-        <v>210.6973782955078</v>
+        <f t="shared" ref="S19:Y19" si="52">S17-S18</f>
+        <v>-39.737312399999887</v>
       </c>
       <c r="T19" s="9">
-        <f t="shared" si="57"/>
-        <v>293.11264247105004</v>
+        <f t="shared" si="52"/>
+        <v>23.866457523000172</v>
       </c>
       <c r="U19" s="9">
-        <f t="shared" si="57"/>
-        <v>386.71102595570636</v>
+        <f t="shared" si="52"/>
+        <v>93.844564233615188</v>
       </c>
       <c r="V19" s="9">
-        <f t="shared" si="57"/>
-        <v>493.42148887823839</v>
-      </c>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
+        <f t="shared" si="52"/>
+        <v>171.56050327535968</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" si="52"/>
+        <v>258.5544247781844</v>
+      </c>
+      <c r="X19" s="9">
+        <f t="shared" si="52"/>
+        <v>356.57405999382968</v>
+      </c>
+      <c r="Y19" s="9">
+        <f t="shared" si="52"/>
+        <v>467.61009099239533</v>
+      </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -2327,29 +2459,32 @@
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" ref="C21:G21" si="58">C19/C22</f>
+        <f t="shared" ref="C21:G21" si="53">C19/C22</f>
         <v>-0.12024491600280959</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>0.12841547290574984</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>-2.5098555624070646E-3</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>-0.25570298982961548</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="53"/>
         <v>-7.6642451233890213E-2</v>
       </c>
       <c r="H21" s="9">
@@ -2357,63 +2492,78 @@
         <v>-0.1276433767007929</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" ref="I21:J21" si="59">I19/I22</f>
-        <v>-0.11132510110588963</v>
+        <f t="shared" ref="I21:N21" si="54">I19/I22</f>
+        <v>0.14020371032687665</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="59"/>
-        <v>-7.2140039686593688E-2</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9">
-        <f t="shared" ref="M21:O21" si="60">M19/M22</f>
+        <f t="shared" si="54"/>
+        <v>-0.68196593364262303</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="54"/>
+        <v>0.14237935639187535</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="54"/>
+        <v>8.4899385884746881E-2</v>
+      </c>
+      <c r="M21" s="9" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="9" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9">
+        <f t="shared" ref="P21:R21" si="55">P19/P22</f>
         <v>5.3964170261137411E-3</v>
       </c>
-      <c r="N21" s="9">
-        <f t="shared" si="60"/>
+      <c r="Q21" s="9">
+        <f t="shared" si="55"/>
         <v>-0.32019196452175669</v>
       </c>
-      <c r="O21" s="9">
-        <f t="shared" si="60"/>
-        <v>-0.3877695322548147</v>
-      </c>
-      <c r="P21" s="9">
-        <f t="shared" ref="P21" si="61">P19/P22</f>
-        <v>8.3695264934421254E-2</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="shared" ref="Q21" si="62">Q19/Q22</f>
-        <v>0.41494584621697467</v>
-      </c>
       <c r="R21" s="9">
-        <f t="shared" ref="R21" si="63">R19/R22</f>
-        <v>0.7844543060859106</v>
+        <f t="shared" si="55"/>
+        <v>-0.74483034827318917</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" ref="S21" si="64">S19/S22</f>
-        <v>1.1996198114143322</v>
+        <f t="shared" ref="S21" si="56">S19/S22</f>
+        <v>-0.2259338190878882</v>
       </c>
       <c r="T21" s="9">
-        <f t="shared" ref="T21" si="65">T19/T22</f>
-        <v>1.6688567068505116</v>
+        <f t="shared" ref="T21" si="57">T19/T22</f>
+        <v>0.1356971463492912</v>
       </c>
       <c r="U21" s="9">
-        <f t="shared" ref="U21" si="66">U19/U22</f>
-        <v>2.2017654504375868</v>
+        <f t="shared" ref="U21" si="58">U19/U22</f>
+        <v>0.53357057932129748</v>
       </c>
       <c r="V21" s="9">
-        <f t="shared" ref="V21" si="67">V19/V22</f>
-        <v>2.8093287074778535</v>
-      </c>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
+        <f t="shared" ref="V21" si="59">V19/V22</f>
+        <v>0.97543888523377531</v>
+      </c>
+      <c r="W21" s="9">
+        <f t="shared" ref="W21" si="60">W19/W22</f>
+        <v>1.4700588717270038</v>
+      </c>
+      <c r="X21" s="9">
+        <f t="shared" ref="X21" si="61">X19/X22</f>
+        <v>2.0273675871969625</v>
+      </c>
+      <c r="Y21" s="9">
+        <f t="shared" ref="Y21" si="62">Y19/Y22</f>
+        <v>2.6586834217290218</v>
+      </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
@@ -2436,59 +2586,65 @@
         <v>175.67695699999999</v>
       </c>
       <c r="I22" s="9">
-        <v>175.67695699999999</v>
+        <v>176.034571</v>
       </c>
       <c r="J22" s="9">
         <v>175.67695699999999</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9">
+      <c r="K22" s="9">
+        <v>189.76767899999999</v>
+      </c>
+      <c r="L22" s="9">
+        <v>195.97314900000001</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9">
         <v>157.88253499999999</v>
       </c>
-      <c r="N22" s="9">
+      <c r="Q22" s="9">
         <v>174.17051699999999</v>
       </c>
-      <c r="O22" s="9">
-        <f>AVERAGE(G22:J22)</f>
-        <v>175.63679450000001</v>
-      </c>
-      <c r="P22" s="9">
-        <f>O22</f>
-        <v>175.63679450000001</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="shared" ref="Q22:V22" si="68">P22</f>
-        <v>175.63679450000001</v>
-      </c>
       <c r="R22" s="9">
-        <f t="shared" si="68"/>
-        <v>175.63679450000001</v>
+        <v>175.88032000000001</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="68"/>
-        <v>175.63679450000001</v>
+        <f>R22</f>
+        <v>175.88032000000001</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" si="68"/>
-        <v>175.63679450000001</v>
+        <f t="shared" ref="T22:Y22" si="63">S22</f>
+        <v>175.88032000000001</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="68"/>
-        <v>175.63679450000001</v>
+        <f t="shared" si="63"/>
+        <v>175.88032000000001</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" si="68"/>
-        <v>175.63679450000001</v>
-      </c>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
+        <f t="shared" si="63"/>
+        <v>175.88032000000001</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" si="63"/>
+        <v>175.88032000000001</v>
+      </c>
+      <c r="X22" s="9">
+        <f t="shared" si="63"/>
+        <v>175.88032000000001</v>
+      </c>
+      <c r="Y22" s="9">
+        <f t="shared" si="63"/>
+        <v>175.88032000000001</v>
+      </c>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2515,99 +2671,117 @@
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="12">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="18">
         <f>G7/C7-1</f>
         <v>0.35005106703219924</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="18">
         <f>H7/D7-1</f>
         <v>0.33811628587214404</v>
       </c>
-      <c r="I24" s="12">
-        <f t="shared" ref="I24:J24" si="69">I7/E7-1</f>
-        <v>0.2589313672464344</v>
-      </c>
-      <c r="J24" s="12">
+      <c r="I24" s="18">
+        <f t="shared" ref="I24:J24" si="64">I7/E7-1</f>
+        <v>0.27138546500042704</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="64"/>
+        <v>0.35422967011625084</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" ref="K24" si="65">K7/G7-1</f>
+        <v>0.24677151768531425</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" ref="L24" si="66">L7/H7-1</f>
+        <v>0.26565061630942988</v>
+      </c>
+      <c r="M24" s="18">
+        <f t="shared" ref="M24" si="67">M7/I7-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N24" s="18">
+        <f t="shared" ref="N24" si="68">N7/J7-1</f>
+        <v>-1</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="18">
+        <f>Q7/P7-1</f>
+        <v>0.33164628361920867</v>
+      </c>
+      <c r="R24" s="18">
+        <f>R7/Q7-1</f>
+        <v>0.32710028456896878</v>
+      </c>
+      <c r="S24" s="18">
+        <f t="shared" ref="S24:Y24" si="69">S7/R7-1</f>
+        <v>0.15500000000000025</v>
+      </c>
+      <c r="T24" s="18">
         <f t="shared" si="69"/>
-        <v>0.29345503981355625</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="12">
-        <f>N7/M7-1</f>
-        <v>0.33164628361920867</v>
-      </c>
-      <c r="O24" s="12">
-        <f>O7/N7-1</f>
-        <v>0.30686084615947418</v>
-      </c>
-      <c r="P24" s="12">
-        <f t="shared" ref="P24:V24" si="70">P7/O7-1</f>
+        <v>0.15500000000000025</v>
+      </c>
+      <c r="U24" s="18">
+        <f t="shared" si="69"/>
         <v>0.15500000000000003</v>
       </c>
-      <c r="Q24" s="12">
-        <f t="shared" si="70"/>
+      <c r="V24" s="18">
+        <f t="shared" si="69"/>
         <v>0.15500000000000025</v>
       </c>
-      <c r="R24" s="12">
-        <f t="shared" si="70"/>
+      <c r="W24" s="18">
+        <f t="shared" si="69"/>
         <v>0.15500000000000003</v>
       </c>
-      <c r="S24" s="12">
-        <f t="shared" si="70"/>
-        <v>0.15500000000000003</v>
-      </c>
-      <c r="T24" s="12">
-        <f t="shared" si="70"/>
+      <c r="X24" s="18">
+        <f t="shared" si="69"/>
         <v>0.15500000000000025</v>
       </c>
-      <c r="U24" s="12">
-        <f t="shared" si="70"/>
-        <v>0.15500000000000003</v>
-      </c>
-      <c r="V24" s="12">
-        <f t="shared" si="70"/>
-        <v>0.15500000000000003</v>
-      </c>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
+      <c r="Y24" s="18">
+        <f t="shared" si="69"/>
+        <v>0.15500000000000025</v>
+      </c>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="12">
-        <f t="shared" ref="C25:G25" si="71">C9/C7</f>
+        <f t="shared" ref="C25:G25" si="70">C9/C7</f>
         <v>0.73454102384919995</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.73821053657902436</v>
       </c>
       <c r="E25" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.74034273677018991</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.74627528230169504</v>
       </c>
       <c r="G25" s="12">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>0.73959784989050359</v>
       </c>
       <c r="H25" s="12">
@@ -2615,63 +2789,78 @@
         <v>0.74498755237112158</v>
       </c>
       <c r="I25" s="12">
-        <f t="shared" ref="I25:J25" si="72">I9/I7</f>
-        <v>0.75071848501978511</v>
+        <f t="shared" ref="I25:J25" si="71">I9/I7</f>
+        <v>0.74346487545479978</v>
       </c>
       <c r="J25" s="12">
+        <f t="shared" si="71"/>
+        <v>0.75369029204781779</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" ref="K25:N25" si="72">K9/K7</f>
+        <v>0.73874257488982098</v>
+      </c>
+      <c r="L25" s="12">
         <f t="shared" si="72"/>
-        <v>0.75170101351351348</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="12">
-        <f t="shared" ref="M25:Q25" si="73">M9/M7</f>
+        <v>0.73701784686240646</v>
+      </c>
+      <c r="M25" s="12" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="12" t="e">
+        <f t="shared" si="72"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="P25" s="12">
+        <f t="shared" ref="P25:T25" si="73">P9/P7</f>
         <v>0.73704586826654361</v>
       </c>
-      <c r="N25" s="12">
+      <c r="Q25" s="12">
         <f t="shared" si="73"/>
         <v>0.74023743602974301</v>
       </c>
-      <c r="O25" s="12">
+      <c r="R25" s="12">
         <f t="shared" si="73"/>
-        <v>0.74712903677293896</v>
-      </c>
-      <c r="P25" s="12">
+        <v>0.74587971076730231</v>
+      </c>
+      <c r="S25" s="12">
         <f t="shared" si="73"/>
-        <v>0.77449602413517493</v>
-      </c>
-      <c r="Q25" s="12">
+        <v>0.77338190657170691</v>
+      </c>
+      <c r="T25" s="12">
         <f t="shared" si="73"/>
-        <v>0.79890121632833788</v>
-      </c>
-      <c r="R25" s="12">
-        <f t="shared" ref="R25:V25" si="74">R9/R7</f>
-        <v>0.82066515395514106</v>
-      </c>
-      <c r="S25" s="12">
-        <f t="shared" si="74"/>
-        <v>0.84007368707687902</v>
-      </c>
-      <c r="T25" s="12">
-        <f t="shared" si="74"/>
-        <v>0.85738172960102643</v>
+        <v>0.79790767425875164</v>
       </c>
       <c r="U25" s="12">
-        <f t="shared" si="74"/>
-        <v>0.87281660734983302</v>
+        <f t="shared" ref="U25:Y25" si="74">U9/U7</f>
+        <v>0.81977913808356206</v>
       </c>
       <c r="V25" s="12">
         <f t="shared" si="74"/>
-        <v>0.88658104378383373</v>
-      </c>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
+        <v>0.83928356036889085</v>
+      </c>
+      <c r="W25" s="12">
+        <f t="shared" si="74"/>
+        <v>0.85667711444152184</v>
+      </c>
+      <c r="X25" s="12">
+        <f t="shared" si="74"/>
+        <v>0.87218824924222293</v>
+      </c>
+      <c r="Y25" s="12">
+        <f t="shared" si="74"/>
+        <v>0.88602068980042392</v>
+      </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
@@ -2701,83 +2890,98 @@
       </c>
       <c r="I26" s="12">
         <f t="shared" ref="I26:J26" si="76">I13/I7</f>
-        <v>0.34479875635952506</v>
+        <v>0.31779457038902881</v>
       </c>
       <c r="J26" s="12">
         <f t="shared" si="76"/>
-        <v>0.37490360896610891</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="12">
-        <f t="shared" ref="M26:Q26" si="77">M13/M7</f>
+        <v>0.20897143032749144</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" ref="K26:N26" si="77">K13/K7</f>
+        <v>0.27030594647533485</v>
+      </c>
+      <c r="L26" s="12">
+        <f t="shared" si="77"/>
+        <v>0.23360199577816154</v>
+      </c>
+      <c r="M26" s="12" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="12" t="e">
+        <f t="shared" si="77"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="12">
+        <f t="shared" ref="P26:T26" si="78">P13/P7</f>
         <v>6.6841012229828467E-2</v>
       </c>
-      <c r="N26" s="12">
-        <f t="shared" si="77"/>
+      <c r="Q26" s="12">
+        <f t="shared" si="78"/>
         <v>0.21351529317535065</v>
       </c>
-      <c r="O26" s="12">
-        <f t="shared" si="77"/>
-        <v>0.3219531572278862</v>
-      </c>
-      <c r="P26" s="12">
-        <f t="shared" si="77"/>
-        <v>0.40749541479892409</v>
-      </c>
-      <c r="Q26" s="12">
-        <f t="shared" si="77"/>
-        <v>0.48186620413850406</v>
-      </c>
       <c r="R26" s="12">
-        <f t="shared" ref="R26:V26" si="78">R13/R7</f>
-        <v>0.54657001123104154</v>
+        <f t="shared" si="78"/>
+        <v>0.26868348054178903</v>
       </c>
       <c r="S26" s="12">
         <f t="shared" si="78"/>
-        <v>0.6029033618037134</v>
+        <v>0.36186921904026348</v>
       </c>
       <c r="T26" s="12">
         <f t="shared" si="78"/>
-        <v>0.65198418326897778</v>
+        <v>0.44276497778954677</v>
       </c>
       <c r="U26" s="12">
-        <f t="shared" si="78"/>
-        <v>0.69477695109356696</v>
+        <f t="shared" ref="U26:Y26" si="79">U13/U7</f>
+        <v>0.51304104382354099</v>
       </c>
       <c r="V26" s="12">
-        <f t="shared" si="78"/>
-        <v>0.7321142326916622</v>
-      </c>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
+        <f t="shared" si="79"/>
+        <v>0.57413496313572054</v>
+      </c>
+      <c r="W26" s="12">
+        <f t="shared" si="79"/>
+        <v>0.62728462568003485</v>
+      </c>
+      <c r="X26" s="12">
+        <f t="shared" si="79"/>
+        <v>0.67355657362725918</v>
+      </c>
+      <c r="Y26" s="12">
+        <f t="shared" si="79"/>
+        <v>0.71387023073005851</v>
+      </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+    </row>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="12">
-        <f t="shared" ref="C27:G27" si="79">C18/C17</f>
+        <f t="shared" ref="C27:G27" si="80">C18/C17</f>
         <v>-0.89118188089215922</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-1.6969806763285034</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.5233532934131673</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-2.9886802871341774E-2</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-0.99999999999999911</v>
       </c>
       <c r="H27" s="12">
@@ -2785,63 +2989,78 @@
         <v>-0.28438054871413032</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" ref="I27:J27" si="80">I18/I17</f>
-        <v>-0.5</v>
+        <f t="shared" ref="I27:J27" si="81">I18/I17</f>
+        <v>0.18475589614851026</v>
       </c>
       <c r="J27" s="12">
-        <f t="shared" si="80"/>
-        <v>-0.5</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="12">
-        <f t="shared" ref="M27:Q27" si="81">M18/M17</f>
+        <f t="shared" si="81"/>
+        <v>3.6769068733467872E-2</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" ref="K27:N27" si="82">K18/K17</f>
+        <v>0.14415584415584415</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="82"/>
+        <v>0.21857974826225815</v>
+      </c>
+      <c r="M27" s="12" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="12" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="12">
+        <f t="shared" ref="P27:T27" si="83">P18/P17</f>
         <v>122.7142857142603</v>
       </c>
-      <c r="N27" s="12">
-        <f t="shared" si="81"/>
+      <c r="Q27" s="12">
+        <f t="shared" si="83"/>
         <v>-7.7746642187650941E-2</v>
       </c>
-      <c r="O27" s="12">
-        <f t="shared" si="81"/>
-        <v>-0.49120906840711287</v>
-      </c>
-      <c r="P27" s="12">
-        <f t="shared" si="81"/>
+      <c r="R27" s="12">
+        <f t="shared" si="83"/>
+        <v>-0.10745625158508752</v>
+      </c>
+      <c r="S27" s="12">
+        <f t="shared" si="83"/>
         <v>0.17</v>
       </c>
-      <c r="Q27" s="12">
-        <f t="shared" si="81"/>
+      <c r="T27" s="12">
+        <f t="shared" si="83"/>
         <v>0.17</v>
       </c>
-      <c r="R27" s="12">
-        <f t="shared" ref="R27:V27" si="82">R18/R17</f>
+      <c r="U27" s="12">
+        <f t="shared" ref="U27:Y27" si="84">U18/U17</f>
         <v>0.17</v>
       </c>
-      <c r="S27" s="12">
-        <f t="shared" si="82"/>
+      <c r="V27" s="12">
+        <f t="shared" si="84"/>
         <v>0.17</v>
       </c>
-      <c r="T27" s="12">
-        <f t="shared" si="82"/>
+      <c r="W27" s="12">
+        <f t="shared" si="84"/>
         <v>0.17</v>
       </c>
-      <c r="U27" s="12">
-        <f t="shared" si="82"/>
+      <c r="X27" s="12">
+        <f t="shared" si="84"/>
         <v>0.17</v>
       </c>
-      <c r="V27" s="12">
-        <f t="shared" si="82"/>
+      <c r="Y27" s="12">
+        <f t="shared" si="84"/>
         <v>0.17</v>
       </c>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2868,8 +3087,11 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2896,8 +3118,11 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
@@ -2911,7 +3136,7 @@
         <v>23.116</v>
       </c>
       <c r="F30" s="9">
-        <f>N30-SUM(C30:E30)</f>
+        <f>Q30-SUM(C30:E30)</f>
         <v>-10.225999999999999</v>
       </c>
       <c r="G30" s="9">
@@ -2924,15 +3149,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="9">
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9">
         <v>50.643999999999998</v>
       </c>
-      <c r="N30" s="9">
+      <c r="Q30" s="9">
         <v>36.173999999999999</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
@@ -2944,8 +3169,11 @@
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
@@ -2959,7 +3187,7 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" ref="F31:F32" si="83">N31-SUM(C31:E31)</f>
+        <f>Q31-SUM(C31:E31)</f>
         <v>0.14100000000000001</v>
       </c>
       <c r="G31" s="9">
@@ -2972,15 +3200,15 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="9">
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9">
         <v>0.43</v>
       </c>
-      <c r="N31" s="9">
+      <c r="Q31" s="9">
         <v>0.50900000000000001</v>
       </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
@@ -2992,8 +3220,11 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
@@ -3010,7 +3241,7 @@
         <v>22.875</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="83"/>
+        <f>Q32-SUM(C32:E32)</f>
         <v>-10.366999999999997</v>
       </c>
       <c r="G32" s="9">
@@ -3025,17 +3256,17 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="9">
-        <f t="shared" ref="M32:N32" si="84">M30-M31</f>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9">
+        <f t="shared" ref="P32:Q32" si="85">P30-P31</f>
         <v>50.213999999999999</v>
       </c>
-      <c r="N32" s="9">
-        <f t="shared" si="84"/>
+      <c r="Q32" s="9">
+        <f t="shared" si="85"/>
         <v>35.664999999999999</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -3047,8 +3278,11 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
-    </row>
-    <row r="33" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+    </row>
+    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -3075,8 +3309,11 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
-    </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+    </row>
+    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -3103,8 +3340,11 @@
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
-    </row>
-    <row r="35" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+    </row>
+    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -3131,8 +3371,11 @@
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
-    </row>
-    <row r="36" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+    </row>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -3159,8 +3402,11 @@
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
-    </row>
-    <row r="37" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+    </row>
+    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -3187,8 +3433,11 @@
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
-    </row>
-    <row r="38" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+    </row>
+    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -3215,8 +3464,11 @@
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
-    </row>
-    <row r="39" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+    </row>
+    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -3243,8 +3495,11 @@
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
-    </row>
-    <row r="40" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+    </row>
+    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -3271,8 +3526,11 @@
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
-    </row>
-    <row r="41" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+    </row>
+    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -3299,8 +3557,11 @@
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
-    </row>
-    <row r="42" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+    </row>
+    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -3327,8 +3588,11 @@
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
-    </row>
-    <row r="43" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+    </row>
+    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -3355,8 +3619,11 @@
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
-    </row>
-    <row r="44" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+    </row>
+    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -3383,8 +3650,11 @@
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
-    </row>
-    <row r="45" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+    </row>
+    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -3411,8 +3681,11 @@
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
-    </row>
-    <row r="46" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+    </row>
+    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -3439,8 +3712,11 @@
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
-    </row>
-    <row r="47" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+    </row>
+    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -3467,8 +3743,11 @@
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
-    </row>
-    <row r="48" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -3495,8 +3774,11 @@
       <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -3523,8 +3805,11 @@
       <c r="Z49" s="9"/>
       <c r="AA49" s="9"/>
       <c r="AB49" s="9"/>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -3551,8 +3836,11 @@
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -3579,8 +3867,11 @@
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -3607,8 +3898,11 @@
       <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -3635,8 +3929,11 @@
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -3663,8 +3960,11 @@
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -3691,8 +3991,11 @@
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -3719,8 +4022,11 @@
       <c r="Z56" s="9"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -3747,8 +4053,11 @@
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -3775,8 +4084,11 @@
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -3803,8 +4115,11 @@
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -3831,8 +4146,11 @@
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -3859,8 +4177,11 @@
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -3887,8 +4208,11 @@
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -3915,8 +4239,11 @@
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -3943,8 +4270,11 @@
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
-    </row>
-    <row r="65" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+    </row>
+    <row r="65" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -3971,8 +4301,11 @@
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
-    </row>
-    <row r="66" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+    </row>
+    <row r="66" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -3999,8 +4332,11 @@
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
-    </row>
-    <row r="67" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+    </row>
+    <row r="67" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -4027,8 +4363,11 @@
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
-    </row>
-    <row r="68" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="9"/>
+    </row>
+    <row r="68" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -4055,8 +4394,11 @@
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
-    </row>
-    <row r="69" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+    </row>
+    <row r="69" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -4083,8 +4425,11 @@
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
-    </row>
-    <row r="70" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+    </row>
+    <row r="70" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -4111,8 +4456,11 @@
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
-    </row>
-    <row r="71" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+      <c r="AE70" s="9"/>
+    </row>
+    <row r="71" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -4139,8 +4487,11 @@
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
-    </row>
-    <row r="72" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+    </row>
+    <row r="72" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -4167,8 +4518,11 @@
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
-    </row>
-    <row r="73" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="9"/>
+    </row>
+    <row r="73" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -4195,8 +4549,11 @@
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
-    </row>
-    <row r="74" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="9"/>
+    </row>
+    <row r="74" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -4223,8 +4580,11 @@
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
-    </row>
-    <row r="75" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+    </row>
+    <row r="75" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -4251,8 +4611,11 @@
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
-    </row>
-    <row r="76" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="9"/>
+    </row>
+    <row r="76" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -4279,8 +4642,11 @@
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
-    </row>
-    <row r="77" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
+    </row>
+    <row r="77" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -4307,8 +4673,11 @@
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
-    </row>
-    <row r="78" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
+      <c r="AE77" s="9"/>
+    </row>
+    <row r="78" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -4335,8 +4704,11 @@
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
-    </row>
-    <row r="79" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC78" s="9"/>
+      <c r="AD78" s="9"/>
+      <c r="AE78" s="9"/>
+    </row>
+    <row r="79" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -4363,8 +4735,11 @@
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
-    </row>
-    <row r="80" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC79" s="9"/>
+      <c r="AD79" s="9"/>
+      <c r="AE79" s="9"/>
+    </row>
+    <row r="80" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -4391,8 +4766,11 @@
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="9"/>
+      <c r="AD80" s="9"/>
+      <c r="AE80" s="9"/>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -4419,8 +4797,11 @@
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -4447,8 +4828,11 @@
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="9"/>
+      <c r="AD82" s="9"/>
+      <c r="AE82" s="9"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -4475,8 +4859,11 @@
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="9"/>
+      <c r="AD83" s="9"/>
+      <c r="AE83" s="9"/>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -4503,8 +4890,11 @@
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -4531,8 +4921,11 @@
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="9"/>
+      <c r="AD85" s="9"/>
+      <c r="AE85" s="9"/>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -4559,8 +4952,11 @@
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="9"/>
+      <c r="AD86" s="9"/>
+      <c r="AE86" s="9"/>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -4587,8 +4983,11 @@
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="9"/>
+      <c r="AD87" s="9"/>
+      <c r="AE87" s="9"/>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -4615,8 +5014,11 @@
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="9"/>
+      <c r="AD88" s="9"/>
+      <c r="AE88" s="9"/>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -4643,8 +5045,11 @@
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
       <c r="AB89" s="9"/>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="9"/>
+      <c r="AD89" s="9"/>
+      <c r="AE89" s="9"/>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -4671,8 +5076,11 @@
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
+      <c r="AE90" s="9"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -4699,8 +5107,11 @@
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
+      <c r="AE91" s="9"/>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -4727,8 +5138,11 @@
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="9"/>
+      <c r="AD92" s="9"/>
+      <c r="AE92" s="9"/>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -4755,8 +5169,11 @@
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="9"/>
+      <c r="AD93" s="9"/>
+      <c r="AE93" s="9"/>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -4783,8 +5200,11 @@
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="9"/>
+      <c r="AD94" s="9"/>
+      <c r="AE94" s="9"/>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -4811,8 +5231,11 @@
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
       <c r="AB95" s="9"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="9"/>
+      <c r="AD95" s="9"/>
+      <c r="AE95" s="9"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -4839,8 +5262,11 @@
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="9"/>
+      <c r="AD96" s="9"/>
+      <c r="AE96" s="9"/>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -4867,8 +5293,11 @@
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
       <c r="AB97" s="9"/>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="9"/>
+      <c r="AD97" s="9"/>
+      <c r="AE97" s="9"/>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -4895,8 +5324,11 @@
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
       <c r="AB98" s="9"/>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="9"/>
+      <c r="AD98" s="9"/>
+      <c r="AE98" s="9"/>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -4923,8 +5355,11 @@
       <c r="Z99" s="9"/>
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="9"/>
+      <c r="AD99" s="9"/>
+      <c r="AE99" s="9"/>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -4951,8 +5386,11 @@
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
       <c r="AB100" s="9"/>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="9"/>
+      <c r="AD100" s="9"/>
+      <c r="AE100" s="9"/>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -4979,8 +5417,11 @@
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
       <c r="AB101" s="9"/>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="9"/>
+      <c r="AD101" s="9"/>
+      <c r="AE101" s="9"/>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -5007,8 +5448,11 @@
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
       <c r="AB102" s="9"/>
-    </row>
-    <row r="103" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC102" s="9"/>
+      <c r="AD102" s="9"/>
+      <c r="AE102" s="9"/>
+    </row>
+    <row r="103" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -5035,8 +5479,11 @@
       <c r="Z103" s="9"/>
       <c r="AA103" s="9"/>
       <c r="AB103" s="9"/>
-    </row>
-    <row r="104" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC103" s="9"/>
+      <c r="AD103" s="9"/>
+      <c r="AE103" s="9"/>
+    </row>
+    <row r="104" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -5063,8 +5510,11 @@
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
       <c r="AB104" s="9"/>
-    </row>
-    <row r="105" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC104" s="9"/>
+      <c r="AD104" s="9"/>
+      <c r="AE104" s="9"/>
+    </row>
+    <row r="105" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -5091,8 +5541,11 @@
       <c r="Z105" s="9"/>
       <c r="AA105" s="9"/>
       <c r="AB105" s="9"/>
-    </row>
-    <row r="106" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC105" s="9"/>
+      <c r="AD105" s="9"/>
+      <c r="AE105" s="9"/>
+    </row>
+    <row r="106" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -5119,8 +5572,11 @@
       <c r="Z106" s="9"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="9"/>
-    </row>
-    <row r="107" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC106" s="9"/>
+      <c r="AD106" s="9"/>
+      <c r="AE106" s="9"/>
+    </row>
+    <row r="107" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -5147,8 +5603,11 @@
       <c r="Z107" s="9"/>
       <c r="AA107" s="9"/>
       <c r="AB107" s="9"/>
-    </row>
-    <row r="108" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC107" s="9"/>
+      <c r="AD107" s="9"/>
+      <c r="AE107" s="9"/>
+    </row>
+    <row r="108" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -5175,8 +5634,11 @@
       <c r="Z108" s="9"/>
       <c r="AA108" s="9"/>
       <c r="AB108" s="9"/>
-    </row>
-    <row r="109" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC108" s="9"/>
+      <c r="AD108" s="9"/>
+      <c r="AE108" s="9"/>
+    </row>
+    <row r="109" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -5203,8 +5665,11 @@
       <c r="Z109" s="9"/>
       <c r="AA109" s="9"/>
       <c r="AB109" s="9"/>
-    </row>
-    <row r="110" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC109" s="9"/>
+      <c r="AD109" s="9"/>
+      <c r="AE109" s="9"/>
+    </row>
+    <row r="110" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -5231,8 +5696,11 @@
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
-    </row>
-    <row r="111" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC110" s="9"/>
+      <c r="AD110" s="9"/>
+      <c r="AE110" s="9"/>
+    </row>
+    <row r="111" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -5259,8 +5727,11 @@
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
-    </row>
-    <row r="112" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC111" s="9"/>
+      <c r="AD111" s="9"/>
+      <c r="AE111" s="9"/>
+    </row>
+    <row r="112" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -5287,8 +5758,11 @@
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
-    </row>
-    <row r="113" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC112" s="9"/>
+      <c r="AD112" s="9"/>
+      <c r="AE112" s="9"/>
+    </row>
+    <row r="113" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -5315,8 +5789,11 @@
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
-    </row>
-    <row r="114" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC113" s="9"/>
+      <c r="AD113" s="9"/>
+      <c r="AE113" s="9"/>
+    </row>
+    <row r="114" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -5343,8 +5820,11 @@
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
-    </row>
-    <row r="115" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC114" s="9"/>
+      <c r="AD114" s="9"/>
+      <c r="AE114" s="9"/>
+    </row>
+    <row r="115" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -5371,8 +5851,11 @@
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
-    </row>
-    <row r="116" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC115" s="9"/>
+      <c r="AD115" s="9"/>
+      <c r="AE115" s="9"/>
+    </row>
+    <row r="116" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -5399,8 +5882,11 @@
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
-    </row>
-    <row r="117" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC116" s="9"/>
+      <c r="AD116" s="9"/>
+      <c r="AE116" s="9"/>
+    </row>
+    <row r="117" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -5427,8 +5913,11 @@
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
-    </row>
-    <row r="118" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC117" s="9"/>
+      <c r="AD117" s="9"/>
+      <c r="AE117" s="9"/>
+    </row>
+    <row r="118" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -5455,8 +5944,11 @@
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
-    </row>
-    <row r="119" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC118" s="9"/>
+      <c r="AD118" s="9"/>
+      <c r="AE118" s="9"/>
+    </row>
+    <row r="119" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -5483,8 +5975,11 @@
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
-    </row>
-    <row r="120" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC119" s="9"/>
+      <c r="AD119" s="9"/>
+      <c r="AE119" s="9"/>
+    </row>
+    <row r="120" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -5511,8 +6006,11 @@
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
-    </row>
-    <row r="121" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC120" s="9"/>
+      <c r="AD120" s="9"/>
+      <c r="AE120" s="9"/>
+    </row>
+    <row r="121" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -5539,8 +6037,11 @@
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
-    </row>
-    <row r="122" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC121" s="9"/>
+      <c r="AD121" s="9"/>
+      <c r="AE121" s="9"/>
+    </row>
+    <row r="122" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -5567,8 +6068,11 @@
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
       <c r="AB122" s="9"/>
-    </row>
-    <row r="123" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC122" s="9"/>
+      <c r="AD122" s="9"/>
+      <c r="AE122" s="9"/>
+    </row>
+    <row r="123" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
@@ -5595,8 +6099,11 @@
       <c r="Z123" s="9"/>
       <c r="AA123" s="9"/>
       <c r="AB123" s="9"/>
-    </row>
-    <row r="124" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC123" s="9"/>
+      <c r="AD123" s="9"/>
+      <c r="AE123" s="9"/>
+    </row>
+    <row r="124" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
@@ -5623,8 +6130,11 @@
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
       <c r="AB124" s="9"/>
-    </row>
-    <row r="125" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC124" s="9"/>
+      <c r="AD124" s="9"/>
+      <c r="AE124" s="9"/>
+    </row>
+    <row r="125" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
@@ -5651,8 +6161,11 @@
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
-    </row>
-    <row r="126" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC125" s="9"/>
+      <c r="AD125" s="9"/>
+      <c r="AE125" s="9"/>
+    </row>
+    <row r="126" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
@@ -5679,8 +6192,11 @@
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
-    </row>
-    <row r="127" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC126" s="9"/>
+      <c r="AD126" s="9"/>
+      <c r="AE126" s="9"/>
+    </row>
+    <row r="127" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -5707,8 +6223,11 @@
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="9"/>
-    </row>
-    <row r="128" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC127" s="9"/>
+      <c r="AD127" s="9"/>
+      <c r="AE127" s="9"/>
+    </row>
+    <row r="128" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -5735,8 +6254,11 @@
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
-    </row>
-    <row r="129" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC128" s="9"/>
+      <c r="AD128" s="9"/>
+      <c r="AE128" s="9"/>
+    </row>
+    <row r="129" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
@@ -5763,8 +6285,11 @@
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
       <c r="AB129" s="9"/>
-    </row>
-    <row r="130" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC129" s="9"/>
+      <c r="AD129" s="9"/>
+      <c r="AE129" s="9"/>
+    </row>
+    <row r="130" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
@@ -5791,8 +6316,11 @@
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
       <c r="AB130" s="9"/>
-    </row>
-    <row r="131" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC130" s="9"/>
+      <c r="AD130" s="9"/>
+      <c r="AE130" s="9"/>
+    </row>
+    <row r="131" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -5819,8 +6347,11 @@
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
-    </row>
-    <row r="132" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC131" s="9"/>
+      <c r="AD131" s="9"/>
+      <c r="AE131" s="9"/>
+    </row>
+    <row r="132" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -5847,8 +6378,11 @@
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
-    </row>
-    <row r="133" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC132" s="9"/>
+      <c r="AD132" s="9"/>
+      <c r="AE132" s="9"/>
+    </row>
+    <row r="133" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -5875,8 +6409,11 @@
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
-    </row>
-    <row r="134" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC133" s="9"/>
+      <c r="AD133" s="9"/>
+      <c r="AE133" s="9"/>
+    </row>
+    <row r="134" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -5903,8 +6440,11 @@
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="9"/>
-    </row>
-    <row r="135" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC134" s="9"/>
+      <c r="AD134" s="9"/>
+      <c r="AE134" s="9"/>
+    </row>
+    <row r="135" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -5931,8 +6471,11 @@
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
-    </row>
-    <row r="136" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC135" s="9"/>
+      <c r="AD135" s="9"/>
+      <c r="AE135" s="9"/>
+    </row>
+    <row r="136" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -5959,8 +6502,11 @@
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
-    </row>
-    <row r="137" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC136" s="9"/>
+      <c r="AD136" s="9"/>
+      <c r="AE136" s="9"/>
+    </row>
+    <row r="137" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -5987,8 +6533,11 @@
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
-    </row>
-    <row r="138" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC137" s="9"/>
+      <c r="AD137" s="9"/>
+      <c r="AE137" s="9"/>
+    </row>
+    <row r="138" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -6015,8 +6564,11 @@
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
-    </row>
-    <row r="139" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC138" s="9"/>
+      <c r="AD138" s="9"/>
+      <c r="AE138" s="9"/>
+    </row>
+    <row r="139" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -6043,8 +6595,11 @@
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
-    </row>
-    <row r="140" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC139" s="9"/>
+      <c r="AD139" s="9"/>
+      <c r="AE139" s="9"/>
+    </row>
+    <row r="140" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -6071,8 +6626,11 @@
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
-    </row>
-    <row r="141" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC140" s="9"/>
+      <c r="AD140" s="9"/>
+      <c r="AE140" s="9"/>
+    </row>
+    <row r="141" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -6099,8 +6657,11 @@
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
-    </row>
-    <row r="142" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC141" s="9"/>
+      <c r="AD141" s="9"/>
+      <c r="AE141" s="9"/>
+    </row>
+    <row r="142" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -6127,8 +6688,11 @@
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
-    </row>
-    <row r="143" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC142" s="9"/>
+      <c r="AD142" s="9"/>
+      <c r="AE142" s="9"/>
+    </row>
+    <row r="143" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -6155,8 +6719,11 @@
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
-    </row>
-    <row r="144" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC143" s="9"/>
+      <c r="AD143" s="9"/>
+      <c r="AE143" s="9"/>
+    </row>
+    <row r="144" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -6183,8 +6750,11 @@
       <c r="Z144" s="9"/>
       <c r="AA144" s="9"/>
       <c r="AB144" s="9"/>
-    </row>
-    <row r="145" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC144" s="9"/>
+      <c r="AD144" s="9"/>
+      <c r="AE144" s="9"/>
+    </row>
+    <row r="145" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -6211,8 +6781,11 @@
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
       <c r="AB145" s="9"/>
-    </row>
-    <row r="146" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC145" s="9"/>
+      <c r="AD145" s="9"/>
+      <c r="AE145" s="9"/>
+    </row>
+    <row r="146" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -6239,8 +6812,11 @@
       <c r="Z146" s="9"/>
       <c r="AA146" s="9"/>
       <c r="AB146" s="9"/>
-    </row>
-    <row r="147" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC146" s="9"/>
+      <c r="AD146" s="9"/>
+      <c r="AE146" s="9"/>
+    </row>
+    <row r="147" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -6267,8 +6843,11 @@
       <c r="Z147" s="9"/>
       <c r="AA147" s="9"/>
       <c r="AB147" s="9"/>
-    </row>
-    <row r="148" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC147" s="9"/>
+      <c r="AD147" s="9"/>
+      <c r="AE147" s="9"/>
+    </row>
+    <row r="148" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -6295,8 +6874,11 @@
       <c r="Z148" s="9"/>
       <c r="AA148" s="9"/>
       <c r="AB148" s="9"/>
-    </row>
-    <row r="149" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC148" s="9"/>
+      <c r="AD148" s="9"/>
+      <c r="AE148" s="9"/>
+    </row>
+    <row r="149" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -6323,8 +6905,11 @@
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
       <c r="AB149" s="9"/>
-    </row>
-    <row r="150" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC149" s="9"/>
+      <c r="AD149" s="9"/>
+      <c r="AE149" s="9"/>
+    </row>
+    <row r="150" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -6351,8 +6936,11 @@
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
       <c r="AB150" s="9"/>
-    </row>
-    <row r="151" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC150" s="9"/>
+      <c r="AD150" s="9"/>
+      <c r="AE150" s="9"/>
+    </row>
+    <row r="151" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -6379,8 +6967,11 @@
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
       <c r="AB151" s="9"/>
-    </row>
-    <row r="152" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC151" s="9"/>
+      <c r="AD151" s="9"/>
+      <c r="AE151" s="9"/>
+    </row>
+    <row r="152" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -6407,8 +6998,11 @@
       <c r="Z152" s="9"/>
       <c r="AA152" s="9"/>
       <c r="AB152" s="9"/>
-    </row>
-    <row r="153" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC152" s="9"/>
+      <c r="AD152" s="9"/>
+      <c r="AE152" s="9"/>
+    </row>
+    <row r="153" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
@@ -6435,8 +7029,11 @@
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
       <c r="AB153" s="9"/>
-    </row>
-    <row r="154" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC153" s="9"/>
+      <c r="AD153" s="9"/>
+      <c r="AE153" s="9"/>
+    </row>
+    <row r="154" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
@@ -6463,8 +7060,11 @@
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
       <c r="AB154" s="9"/>
-    </row>
-    <row r="155" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC154" s="9"/>
+      <c r="AD154" s="9"/>
+      <c r="AE154" s="9"/>
+    </row>
+    <row r="155" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
@@ -6491,8 +7091,11 @@
       <c r="Z155" s="9"/>
       <c r="AA155" s="9"/>
       <c r="AB155" s="9"/>
-    </row>
-    <row r="156" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC155" s="9"/>
+      <c r="AD155" s="9"/>
+      <c r="AE155" s="9"/>
+    </row>
+    <row r="156" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -6519,8 +7122,11 @@
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
       <c r="AB156" s="9"/>
-    </row>
-    <row r="157" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC156" s="9"/>
+      <c r="AD156" s="9"/>
+      <c r="AE156" s="9"/>
+    </row>
+    <row r="157" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
@@ -6547,8 +7153,11 @@
       <c r="Z157" s="9"/>
       <c r="AA157" s="9"/>
       <c r="AB157" s="9"/>
-    </row>
-    <row r="158" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC157" s="9"/>
+      <c r="AD157" s="9"/>
+      <c r="AE157" s="9"/>
+    </row>
+    <row r="158" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -6575,8 +7184,11 @@
       <c r="Z158" s="9"/>
       <c r="AA158" s="9"/>
       <c r="AB158" s="9"/>
-    </row>
-    <row r="159" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC158" s="9"/>
+      <c r="AD158" s="9"/>
+      <c r="AE158" s="9"/>
+    </row>
+    <row r="159" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
@@ -6603,8 +7215,11 @@
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
       <c r="AB159" s="9"/>
-    </row>
-    <row r="160" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC159" s="9"/>
+      <c r="AD159" s="9"/>
+      <c r="AE159" s="9"/>
+    </row>
+    <row r="160" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -6631,8 +7246,11 @@
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
       <c r="AB160" s="9"/>
-    </row>
-    <row r="161" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC160" s="9"/>
+      <c r="AD160" s="9"/>
+      <c r="AE160" s="9"/>
+    </row>
+    <row r="161" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -6659,8 +7277,11 @@
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
-    </row>
-    <row r="162" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC161" s="9"/>
+      <c r="AD161" s="9"/>
+      <c r="AE161" s="9"/>
+    </row>
+    <row r="162" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -6687,8 +7308,11 @@
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
-    </row>
-    <row r="163" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC162" s="9"/>
+      <c r="AD162" s="9"/>
+      <c r="AE162" s="9"/>
+    </row>
+    <row r="163" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
@@ -6715,8 +7339,11 @@
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
-    </row>
-    <row r="164" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC163" s="9"/>
+      <c r="AD163" s="9"/>
+      <c r="AE163" s="9"/>
+    </row>
+    <row r="164" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
@@ -6743,8 +7370,11 @@
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
-    </row>
-    <row r="165" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC164" s="9"/>
+      <c r="AD164" s="9"/>
+      <c r="AE164" s="9"/>
+    </row>
+    <row r="165" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
@@ -6771,8 +7401,11 @@
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
-    </row>
-    <row r="166" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC165" s="9"/>
+      <c r="AD165" s="9"/>
+      <c r="AE165" s="9"/>
+    </row>
+    <row r="166" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -6799,8 +7432,11 @@
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
-    </row>
-    <row r="167" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC166" s="9"/>
+      <c r="AD166" s="9"/>
+      <c r="AE166" s="9"/>
+    </row>
+    <row r="167" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
@@ -6827,8 +7463,11 @@
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
-    </row>
-    <row r="168" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC167" s="9"/>
+      <c r="AD167" s="9"/>
+      <c r="AE167" s="9"/>
+    </row>
+    <row r="168" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
@@ -6855,8 +7494,11 @@
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>
-    </row>
-    <row r="169" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC168" s="9"/>
+      <c r="AD168" s="9"/>
+      <c r="AE168" s="9"/>
+    </row>
+    <row r="169" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -6883,8 +7525,11 @@
       <c r="Z169" s="9"/>
       <c r="AA169" s="9"/>
       <c r="AB169" s="9"/>
-    </row>
-    <row r="170" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC169" s="9"/>
+      <c r="AD169" s="9"/>
+      <c r="AE169" s="9"/>
+    </row>
+    <row r="170" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -6911,8 +7556,11 @@
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
-    </row>
-    <row r="171" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC170" s="9"/>
+      <c r="AD170" s="9"/>
+      <c r="AE170" s="9"/>
+    </row>
+    <row r="171" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -6939,8 +7587,11 @@
       <c r="Z171" s="9"/>
       <c r="AA171" s="9"/>
       <c r="AB171" s="9"/>
-    </row>
-    <row r="172" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC171" s="9"/>
+      <c r="AD171" s="9"/>
+      <c r="AE171" s="9"/>
+    </row>
+    <row r="172" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -6967,8 +7618,11 @@
       <c r="Z172" s="9"/>
       <c r="AA172" s="9"/>
       <c r="AB172" s="9"/>
-    </row>
-    <row r="173" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC172" s="9"/>
+      <c r="AD172" s="9"/>
+      <c r="AE172" s="9"/>
+    </row>
+    <row r="173" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -6995,8 +7649,11 @@
       <c r="Z173" s="9"/>
       <c r="AA173" s="9"/>
       <c r="AB173" s="9"/>
-    </row>
-    <row r="174" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC173" s="9"/>
+      <c r="AD173" s="9"/>
+      <c r="AE173" s="9"/>
+    </row>
+    <row r="174" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -7023,8 +7680,11 @@
       <c r="Z174" s="9"/>
       <c r="AA174" s="9"/>
       <c r="AB174" s="9"/>
-    </row>
-    <row r="175" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC174" s="9"/>
+      <c r="AD174" s="9"/>
+      <c r="AE174" s="9"/>
+    </row>
+    <row r="175" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -7051,8 +7711,11 @@
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
       <c r="AB175" s="9"/>
-    </row>
-    <row r="176" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC175" s="9"/>
+      <c r="AD175" s="9"/>
+      <c r="AE175" s="9"/>
+    </row>
+    <row r="176" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -7079,8 +7742,11 @@
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
       <c r="AB176" s="9"/>
-    </row>
-    <row r="177" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC176" s="9"/>
+      <c r="AD176" s="9"/>
+      <c r="AE176" s="9"/>
+    </row>
+    <row r="177" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -7107,8 +7773,11 @@
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
       <c r="AB177" s="9"/>
-    </row>
-    <row r="178" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC177" s="9"/>
+      <c r="AD177" s="9"/>
+      <c r="AE177" s="9"/>
+    </row>
+    <row r="178" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -7135,8 +7804,11 @@
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
-    </row>
-    <row r="179" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC178" s="9"/>
+      <c r="AD178" s="9"/>
+      <c r="AE178" s="9"/>
+    </row>
+    <row r="179" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -7163,8 +7835,11 @@
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
       <c r="AB179" s="9"/>
-    </row>
-    <row r="180" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC179" s="9"/>
+      <c r="AD179" s="9"/>
+      <c r="AE179" s="9"/>
+    </row>
+    <row r="180" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -7191,8 +7866,11 @@
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
-    </row>
-    <row r="181" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC180" s="9"/>
+      <c r="AD180" s="9"/>
+      <c r="AE180" s="9"/>
+    </row>
+    <row r="181" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -7219,8 +7897,11 @@
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
       <c r="AB181" s="9"/>
-    </row>
-    <row r="182" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC181" s="9"/>
+      <c r="AD181" s="9"/>
+      <c r="AE181" s="9"/>
+    </row>
+    <row r="182" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -7247,8 +7928,11 @@
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
       <c r="AB182" s="9"/>
-    </row>
-    <row r="183" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC182" s="9"/>
+      <c r="AD182" s="9"/>
+      <c r="AE182" s="9"/>
+    </row>
+    <row r="183" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -7275,8 +7959,11 @@
       <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
       <c r="AB183" s="9"/>
-    </row>
-    <row r="184" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC183" s="9"/>
+      <c r="AD183" s="9"/>
+      <c r="AE183" s="9"/>
+    </row>
+    <row r="184" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -7303,8 +7990,11 @@
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
       <c r="AB184" s="9"/>
-    </row>
-    <row r="185" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC184" s="9"/>
+      <c r="AD184" s="9"/>
+      <c r="AE184" s="9"/>
+    </row>
+    <row r="185" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
@@ -7331,8 +8021,11 @@
       <c r="Z185" s="9"/>
       <c r="AA185" s="9"/>
       <c r="AB185" s="9"/>
-    </row>
-    <row r="186" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC185" s="9"/>
+      <c r="AD185" s="9"/>
+      <c r="AE185" s="9"/>
+    </row>
+    <row r="186" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -7359,8 +8052,11 @@
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
       <c r="AB186" s="9"/>
-    </row>
-    <row r="187" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC186" s="9"/>
+      <c r="AD186" s="9"/>
+      <c r="AE186" s="9"/>
+    </row>
+    <row r="187" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
@@ -7387,8 +8083,11 @@
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
       <c r="AB187" s="9"/>
-    </row>
-    <row r="188" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC187" s="9"/>
+      <c r="AD187" s="9"/>
+      <c r="AE187" s="9"/>
+    </row>
+    <row r="188" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
@@ -7415,8 +8114,11 @@
       <c r="Z188" s="9"/>
       <c r="AA188" s="9"/>
       <c r="AB188" s="9"/>
-    </row>
-    <row r="189" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC188" s="9"/>
+      <c r="AD188" s="9"/>
+      <c r="AE188" s="9"/>
+    </row>
+    <row r="189" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
@@ -7443,8 +8145,11 @@
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
       <c r="AB189" s="9"/>
-    </row>
-    <row r="190" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC189" s="9"/>
+      <c r="AD189" s="9"/>
+      <c r="AE189" s="9"/>
+    </row>
+    <row r="190" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
@@ -7471,8 +8176,11 @@
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
       <c r="AB190" s="9"/>
-    </row>
-    <row r="191" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC190" s="9"/>
+      <c r="AD190" s="9"/>
+      <c r="AE190" s="9"/>
+    </row>
+    <row r="191" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
@@ -7499,8 +8207,11 @@
       <c r="Z191" s="9"/>
       <c r="AA191" s="9"/>
       <c r="AB191" s="9"/>
-    </row>
-    <row r="192" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC191" s="9"/>
+      <c r="AD191" s="9"/>
+      <c r="AE191" s="9"/>
+    </row>
+    <row r="192" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
@@ -7527,8 +8238,11 @@
       <c r="Z192" s="9"/>
       <c r="AA192" s="9"/>
       <c r="AB192" s="9"/>
-    </row>
-    <row r="193" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC192" s="9"/>
+      <c r="AD192" s="9"/>
+      <c r="AE192" s="9"/>
+    </row>
+    <row r="193" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -7555,8 +8269,11 @@
       <c r="Z193" s="9"/>
       <c r="AA193" s="9"/>
       <c r="AB193" s="9"/>
-    </row>
-    <row r="194" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC193" s="9"/>
+      <c r="AD193" s="9"/>
+      <c r="AE193" s="9"/>
+    </row>
+    <row r="194" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
@@ -7583,8 +8300,11 @@
       <c r="Z194" s="9"/>
       <c r="AA194" s="9"/>
       <c r="AB194" s="9"/>
-    </row>
-    <row r="195" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC194" s="9"/>
+      <c r="AD194" s="9"/>
+      <c r="AE194" s="9"/>
+    </row>
+    <row r="195" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -7611,8 +8331,11 @@
       <c r="Z195" s="9"/>
       <c r="AA195" s="9"/>
       <c r="AB195" s="9"/>
-    </row>
-    <row r="196" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC195" s="9"/>
+      <c r="AD195" s="9"/>
+      <c r="AE195" s="9"/>
+    </row>
+    <row r="196" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
@@ -7639,8 +8362,11 @@
       <c r="Z196" s="9"/>
       <c r="AA196" s="9"/>
       <c r="AB196" s="9"/>
-    </row>
-    <row r="197" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC196" s="9"/>
+      <c r="AD196" s="9"/>
+      <c r="AE196" s="9"/>
+    </row>
+    <row r="197" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
@@ -7667,8 +8393,11 @@
       <c r="Z197" s="9"/>
       <c r="AA197" s="9"/>
       <c r="AB197" s="9"/>
-    </row>
-    <row r="198" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC197" s="9"/>
+      <c r="AD197" s="9"/>
+      <c r="AE197" s="9"/>
+    </row>
+    <row r="198" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
@@ -7695,8 +8424,11 @@
       <c r="Z198" s="9"/>
       <c r="AA198" s="9"/>
       <c r="AB198" s="9"/>
-    </row>
-    <row r="199" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC198" s="9"/>
+      <c r="AD198" s="9"/>
+      <c r="AE198" s="9"/>
+    </row>
+    <row r="199" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
@@ -7723,8 +8455,11 @@
       <c r="Z199" s="9"/>
       <c r="AA199" s="9"/>
       <c r="AB199" s="9"/>
-    </row>
-    <row r="200" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC199" s="9"/>
+      <c r="AD199" s="9"/>
+      <c r="AE199" s="9"/>
+    </row>
+    <row r="200" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
@@ -7751,8 +8486,11 @@
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
       <c r="AB200" s="9"/>
-    </row>
-    <row r="201" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC200" s="9"/>
+      <c r="AD200" s="9"/>
+      <c r="AE200" s="9"/>
+    </row>
+    <row r="201" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
@@ -7779,8 +8517,11 @@
       <c r="Z201" s="9"/>
       <c r="AA201" s="9"/>
       <c r="AB201" s="9"/>
-    </row>
-    <row r="202" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC201" s="9"/>
+      <c r="AD201" s="9"/>
+      <c r="AE201" s="9"/>
+    </row>
+    <row r="202" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -7807,8 +8548,11 @@
       <c r="Z202" s="9"/>
       <c r="AA202" s="9"/>
       <c r="AB202" s="9"/>
-    </row>
-    <row r="203" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC202" s="9"/>
+      <c r="AD202" s="9"/>
+      <c r="AE202" s="9"/>
+    </row>
+    <row r="203" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -7835,8 +8579,11 @@
       <c r="Z203" s="9"/>
       <c r="AA203" s="9"/>
       <c r="AB203" s="9"/>
-    </row>
-    <row r="204" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC203" s="9"/>
+      <c r="AD203" s="9"/>
+      <c r="AE203" s="9"/>
+    </row>
+    <row r="204" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -7863,8 +8610,11 @@
       <c r="Z204" s="9"/>
       <c r="AA204" s="9"/>
       <c r="AB204" s="9"/>
-    </row>
-    <row r="205" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC204" s="9"/>
+      <c r="AD204" s="9"/>
+      <c r="AE204" s="9"/>
+    </row>
+    <row r="205" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -7891,8 +8641,11 @@
       <c r="Z205" s="9"/>
       <c r="AA205" s="9"/>
       <c r="AB205" s="9"/>
-    </row>
-    <row r="206" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC205" s="9"/>
+      <c r="AD205" s="9"/>
+      <c r="AE205" s="9"/>
+    </row>
+    <row r="206" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
@@ -7919,8 +8672,11 @@
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
       <c r="AB206" s="9"/>
-    </row>
-    <row r="207" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC206" s="9"/>
+      <c r="AD206" s="9"/>
+      <c r="AE206" s="9"/>
+    </row>
+    <row r="207" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
@@ -7947,8 +8703,11 @@
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
       <c r="AB207" s="9"/>
-    </row>
-    <row r="208" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC207" s="9"/>
+      <c r="AD207" s="9"/>
+      <c r="AE207" s="9"/>
+    </row>
+    <row r="208" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -7975,8 +8734,11 @@
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
       <c r="AB208" s="9"/>
-    </row>
-    <row r="209" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC208" s="9"/>
+      <c r="AD208" s="9"/>
+      <c r="AE208" s="9"/>
+    </row>
+    <row r="209" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -8003,8 +8765,11 @@
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
       <c r="AB209" s="9"/>
-    </row>
-    <row r="210" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC209" s="9"/>
+      <c r="AD209" s="9"/>
+      <c r="AE209" s="9"/>
+    </row>
+    <row r="210" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -8031,8 +8796,11 @@
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
       <c r="AB210" s="9"/>
-    </row>
-    <row r="211" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC210" s="9"/>
+      <c r="AD210" s="9"/>
+      <c r="AE210" s="9"/>
+    </row>
+    <row r="211" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
@@ -8059,8 +8827,11 @@
       <c r="Z211" s="9"/>
       <c r="AA211" s="9"/>
       <c r="AB211" s="9"/>
-    </row>
-    <row r="212" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC211" s="9"/>
+      <c r="AD211" s="9"/>
+      <c r="AE211" s="9"/>
+    </row>
+    <row r="212" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -8087,8 +8858,11 @@
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
       <c r="AB212" s="9"/>
-    </row>
-    <row r="213" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC212" s="9"/>
+      <c r="AD212" s="9"/>
+      <c r="AE212" s="9"/>
+    </row>
+    <row r="213" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -8115,8 +8889,11 @@
       <c r="Z213" s="9"/>
       <c r="AA213" s="9"/>
       <c r="AB213" s="9"/>
-    </row>
-    <row r="214" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC213" s="9"/>
+      <c r="AD213" s="9"/>
+      <c r="AE213" s="9"/>
+    </row>
+    <row r="214" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
@@ -8143,8 +8920,11 @@
       <c r="Z214" s="9"/>
       <c r="AA214" s="9"/>
       <c r="AB214" s="9"/>
-    </row>
-    <row r="215" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC214" s="9"/>
+      <c r="AD214" s="9"/>
+      <c r="AE214" s="9"/>
+    </row>
+    <row r="215" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -8171,8 +8951,11 @@
       <c r="Z215" s="9"/>
       <c r="AA215" s="9"/>
       <c r="AB215" s="9"/>
-    </row>
-    <row r="216" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC215" s="9"/>
+      <c r="AD215" s="9"/>
+      <c r="AE215" s="9"/>
+    </row>
+    <row r="216" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
@@ -8199,8 +8982,11 @@
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
-    </row>
-    <row r="217" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC216" s="9"/>
+      <c r="AD216" s="9"/>
+      <c r="AE216" s="9"/>
+    </row>
+    <row r="217" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
@@ -8227,8 +9013,11 @@
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
       <c r="AB217" s="9"/>
-    </row>
-    <row r="218" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC217" s="9"/>
+      <c r="AD217" s="9"/>
+      <c r="AE217" s="9"/>
+    </row>
+    <row r="218" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -8255,8 +9044,11 @@
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
       <c r="AB218" s="9"/>
-    </row>
-    <row r="219" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC218" s="9"/>
+      <c r="AD218" s="9"/>
+      <c r="AE218" s="9"/>
+    </row>
+    <row r="219" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -8283,8 +9075,11 @@
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
       <c r="AB219" s="9"/>
-    </row>
-    <row r="220" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC219" s="9"/>
+      <c r="AD219" s="9"/>
+      <c r="AE219" s="9"/>
+    </row>
+    <row r="220" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
@@ -8311,8 +9106,11 @@
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
       <c r="AB220" s="9"/>
-    </row>
-    <row r="221" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC220" s="9"/>
+      <c r="AD220" s="9"/>
+      <c r="AE220" s="9"/>
+    </row>
+    <row r="221" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -8339,8 +9137,11 @@
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
       <c r="AB221" s="9"/>
-    </row>
-    <row r="222" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC221" s="9"/>
+      <c r="AD221" s="9"/>
+      <c r="AE221" s="9"/>
+    </row>
+    <row r="222" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
@@ -8367,8 +9168,11 @@
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
       <c r="AB222" s="9"/>
-    </row>
-    <row r="223" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC222" s="9"/>
+      <c r="AD222" s="9"/>
+      <c r="AE222" s="9"/>
+    </row>
+    <row r="223" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
@@ -8395,8 +9199,11 @@
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
-    </row>
-    <row r="224" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC223" s="9"/>
+      <c r="AD223" s="9"/>
+      <c r="AE223" s="9"/>
+    </row>
+    <row r="224" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -8423,8 +9230,11 @@
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
       <c r="AB224" s="9"/>
-    </row>
-    <row r="225" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC224" s="9"/>
+      <c r="AD224" s="9"/>
+      <c r="AE224" s="9"/>
+    </row>
+    <row r="225" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -8451,8 +9261,11 @@
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
       <c r="AB225" s="9"/>
-    </row>
-    <row r="226" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC225" s="9"/>
+      <c r="AD225" s="9"/>
+      <c r="AE225" s="9"/>
+    </row>
+    <row r="226" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -8479,8 +9292,11 @@
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
       <c r="AB226" s="9"/>
-    </row>
-    <row r="227" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC226" s="9"/>
+      <c r="AD226" s="9"/>
+      <c r="AE226" s="9"/>
+    </row>
+    <row r="227" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -8507,8 +9323,11 @@
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
       <c r="AB227" s="9"/>
-    </row>
-    <row r="228" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC227" s="9"/>
+      <c r="AD227" s="9"/>
+      <c r="AE227" s="9"/>
+    </row>
+    <row r="228" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -8535,8 +9354,11 @@
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
       <c r="AB228" s="9"/>
-    </row>
-    <row r="229" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC228" s="9"/>
+      <c r="AD228" s="9"/>
+      <c r="AE228" s="9"/>
+    </row>
+    <row r="229" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
@@ -8563,8 +9385,11 @@
       <c r="Z229" s="9"/>
       <c r="AA229" s="9"/>
       <c r="AB229" s="9"/>
-    </row>
-    <row r="230" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC229" s="9"/>
+      <c r="AD229" s="9"/>
+      <c r="AE229" s="9"/>
+    </row>
+    <row r="230" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -8591,8 +9416,11 @@
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
       <c r="AB230" s="9"/>
-    </row>
-    <row r="231" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC230" s="9"/>
+      <c r="AD230" s="9"/>
+      <c r="AE230" s="9"/>
+    </row>
+    <row r="231" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -8619,8 +9447,11 @@
       <c r="Z231" s="9"/>
       <c r="AA231" s="9"/>
       <c r="AB231" s="9"/>
-    </row>
-    <row r="232" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC231" s="9"/>
+      <c r="AD231" s="9"/>
+      <c r="AE231" s="9"/>
+    </row>
+    <row r="232" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
@@ -8647,8 +9478,11 @@
       <c r="Z232" s="9"/>
       <c r="AA232" s="9"/>
       <c r="AB232" s="9"/>
-    </row>
-    <row r="233" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC232" s="9"/>
+      <c r="AD232" s="9"/>
+      <c r="AE232" s="9"/>
+    </row>
+    <row r="233" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -8675,8 +9509,11 @@
       <c r="Z233" s="9"/>
       <c r="AA233" s="9"/>
       <c r="AB233" s="9"/>
-    </row>
-    <row r="234" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC233" s="9"/>
+      <c r="AD233" s="9"/>
+      <c r="AE233" s="9"/>
+    </row>
+    <row r="234" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
@@ -8703,8 +9540,11 @@
       <c r="Z234" s="9"/>
       <c r="AA234" s="9"/>
       <c r="AB234" s="9"/>
-    </row>
-    <row r="235" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC234" s="9"/>
+      <c r="AD234" s="9"/>
+      <c r="AE234" s="9"/>
+    </row>
+    <row r="235" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -8731,8 +9571,11 @@
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
       <c r="AB235" s="9"/>
-    </row>
-    <row r="236" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC235" s="9"/>
+      <c r="AD235" s="9"/>
+      <c r="AE235" s="9"/>
+    </row>
+    <row r="236" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -8759,8 +9602,11 @@
       <c r="Z236" s="9"/>
       <c r="AA236" s="9"/>
       <c r="AB236" s="9"/>
-    </row>
-    <row r="237" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC236" s="9"/>
+      <c r="AD236" s="9"/>
+      <c r="AE236" s="9"/>
+    </row>
+    <row r="237" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
@@ -8787,8 +9633,11 @@
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
       <c r="AB237" s="9"/>
-    </row>
-    <row r="238" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC237" s="9"/>
+      <c r="AD237" s="9"/>
+      <c r="AE237" s="9"/>
+    </row>
+    <row r="238" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
@@ -8815,8 +9664,11 @@
       <c r="Z238" s="9"/>
       <c r="AA238" s="9"/>
       <c r="AB238" s="9"/>
-    </row>
-    <row r="239" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC238" s="9"/>
+      <c r="AD238" s="9"/>
+      <c r="AE238" s="9"/>
+    </row>
+    <row r="239" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -8843,8 +9695,11 @@
       <c r="Z239" s="9"/>
       <c r="AA239" s="9"/>
       <c r="AB239" s="9"/>
-    </row>
-    <row r="240" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC239" s="9"/>
+      <c r="AD239" s="9"/>
+      <c r="AE239" s="9"/>
+    </row>
+    <row r="240" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -8871,8 +9726,11 @@
       <c r="Z240" s="9"/>
       <c r="AA240" s="9"/>
       <c r="AB240" s="9"/>
-    </row>
-    <row r="241" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC240" s="9"/>
+      <c r="AD240" s="9"/>
+      <c r="AE240" s="9"/>
+    </row>
+    <row r="241" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
@@ -8899,8 +9757,11 @@
       <c r="Z241" s="9"/>
       <c r="AA241" s="9"/>
       <c r="AB241" s="9"/>
-    </row>
-    <row r="242" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC241" s="9"/>
+      <c r="AD241" s="9"/>
+      <c r="AE241" s="9"/>
+    </row>
+    <row r="242" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
@@ -8927,8 +9788,11 @@
       <c r="Z242" s="9"/>
       <c r="AA242" s="9"/>
       <c r="AB242" s="9"/>
-    </row>
-    <row r="243" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC242" s="9"/>
+      <c r="AD242" s="9"/>
+      <c r="AE242" s="9"/>
+    </row>
+    <row r="243" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
@@ -8955,8 +9819,11 @@
       <c r="Z243" s="9"/>
       <c r="AA243" s="9"/>
       <c r="AB243" s="9"/>
-    </row>
-    <row r="244" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC243" s="9"/>
+      <c r="AD243" s="9"/>
+      <c r="AE243" s="9"/>
+    </row>
+    <row r="244" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
@@ -8983,8 +9850,11 @@
       <c r="Z244" s="9"/>
       <c r="AA244" s="9"/>
       <c r="AB244" s="9"/>
-    </row>
-    <row r="245" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC244" s="9"/>
+      <c r="AD244" s="9"/>
+      <c r="AE244" s="9"/>
+    </row>
+    <row r="245" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
@@ -9011,8 +9881,11 @@
       <c r="Z245" s="9"/>
       <c r="AA245" s="9"/>
       <c r="AB245" s="9"/>
-    </row>
-    <row r="246" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC245" s="9"/>
+      <c r="AD245" s="9"/>
+      <c r="AE245" s="9"/>
+    </row>
+    <row r="246" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -9039,8 +9912,11 @@
       <c r="Z246" s="9"/>
       <c r="AA246" s="9"/>
       <c r="AB246" s="9"/>
-    </row>
-    <row r="247" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC246" s="9"/>
+      <c r="AD246" s="9"/>
+      <c r="AE246" s="9"/>
+    </row>
+    <row r="247" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
@@ -9067,8 +9943,11 @@
       <c r="Z247" s="9"/>
       <c r="AA247" s="9"/>
       <c r="AB247" s="9"/>
-    </row>
-    <row r="248" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC247" s="9"/>
+      <c r="AD247" s="9"/>
+      <c r="AE247" s="9"/>
+    </row>
+    <row r="248" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -9095,8 +9974,11 @@
       <c r="Z248" s="9"/>
       <c r="AA248" s="9"/>
       <c r="AB248" s="9"/>
-    </row>
-    <row r="249" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC248" s="9"/>
+      <c r="AD248" s="9"/>
+      <c r="AE248" s="9"/>
+    </row>
+    <row r="249" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
@@ -9123,8 +10005,11 @@
       <c r="Z249" s="9"/>
       <c r="AA249" s="9"/>
       <c r="AB249" s="9"/>
-    </row>
-    <row r="250" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC249" s="9"/>
+      <c r="AD249" s="9"/>
+      <c r="AE249" s="9"/>
+    </row>
+    <row r="250" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
@@ -9151,8 +10036,11 @@
       <c r="Z250" s="9"/>
       <c r="AA250" s="9"/>
       <c r="AB250" s="9"/>
-    </row>
-    <row r="251" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC250" s="9"/>
+      <c r="AD250" s="9"/>
+      <c r="AE250" s="9"/>
+    </row>
+    <row r="251" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
@@ -9179,8 +10067,11 @@
       <c r="Z251" s="9"/>
       <c r="AA251" s="9"/>
       <c r="AB251" s="9"/>
-    </row>
-    <row r="252" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC251" s="9"/>
+      <c r="AD251" s="9"/>
+      <c r="AE251" s="9"/>
+    </row>
+    <row r="252" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
@@ -9207,8 +10098,11 @@
       <c r="Z252" s="9"/>
       <c r="AA252" s="9"/>
       <c r="AB252" s="9"/>
-    </row>
-    <row r="253" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC252" s="9"/>
+      <c r="AD252" s="9"/>
+      <c r="AE252" s="9"/>
+    </row>
+    <row r="253" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
@@ -9235,8 +10129,11 @@
       <c r="Z253" s="9"/>
       <c r="AA253" s="9"/>
       <c r="AB253" s="9"/>
-    </row>
-    <row r="254" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC253" s="9"/>
+      <c r="AD253" s="9"/>
+      <c r="AE253" s="9"/>
+    </row>
+    <row r="254" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
@@ -9263,8 +10160,11 @@
       <c r="Z254" s="9"/>
       <c r="AA254" s="9"/>
       <c r="AB254" s="9"/>
-    </row>
-    <row r="255" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC254" s="9"/>
+      <c r="AD254" s="9"/>
+      <c r="AE254" s="9"/>
+    </row>
+    <row r="255" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
@@ -9291,8 +10191,11 @@
       <c r="Z255" s="9"/>
       <c r="AA255" s="9"/>
       <c r="AB255" s="9"/>
-    </row>
-    <row r="256" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC255" s="9"/>
+      <c r="AD255" s="9"/>
+      <c r="AE255" s="9"/>
+    </row>
+    <row r="256" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
@@ -9319,8 +10222,11 @@
       <c r="Z256" s="9"/>
       <c r="AA256" s="9"/>
       <c r="AB256" s="9"/>
-    </row>
-    <row r="257" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC256" s="9"/>
+      <c r="AD256" s="9"/>
+      <c r="AE256" s="9"/>
+    </row>
+    <row r="257" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
@@ -9347,8 +10253,11 @@
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
       <c r="AB257" s="9"/>
-    </row>
-    <row r="258" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC257" s="9"/>
+      <c r="AD257" s="9"/>
+      <c r="AE257" s="9"/>
+    </row>
+    <row r="258" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
@@ -9375,8 +10284,11 @@
       <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
       <c r="AB258" s="9"/>
-    </row>
-    <row r="259" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC258" s="9"/>
+      <c r="AD258" s="9"/>
+      <c r="AE258" s="9"/>
+    </row>
+    <row r="259" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
@@ -9403,8 +10315,11 @@
       <c r="Z259" s="9"/>
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
-    </row>
-    <row r="260" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC259" s="9"/>
+      <c r="AD259" s="9"/>
+      <c r="AE259" s="9"/>
+    </row>
+    <row r="260" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
@@ -9431,8 +10346,11 @@
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
       <c r="AB260" s="9"/>
-    </row>
-    <row r="261" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC260" s="9"/>
+      <c r="AD260" s="9"/>
+      <c r="AE260" s="9"/>
+    </row>
+    <row r="261" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
@@ -9459,8 +10377,11 @@
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
       <c r="AB261" s="9"/>
-    </row>
-    <row r="262" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC261" s="9"/>
+      <c r="AD261" s="9"/>
+      <c r="AE261" s="9"/>
+    </row>
+    <row r="262" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
@@ -9487,8 +10408,11 @@
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
       <c r="AB262" s="9"/>
-    </row>
-    <row r="263" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC262" s="9"/>
+      <c r="AD262" s="9"/>
+      <c r="AE262" s="9"/>
+    </row>
+    <row r="263" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
@@ -9515,8 +10439,11 @@
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
       <c r="AB263" s="9"/>
-    </row>
-    <row r="264" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC263" s="9"/>
+      <c r="AD263" s="9"/>
+      <c r="AE263" s="9"/>
+    </row>
+    <row r="264" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -9543,8 +10470,11 @@
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
       <c r="AB264" s="9"/>
-    </row>
-    <row r="265" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC264" s="9"/>
+      <c r="AD264" s="9"/>
+      <c r="AE264" s="9"/>
+    </row>
+    <row r="265" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
@@ -9571,8 +10501,11 @@
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
       <c r="AB265" s="9"/>
-    </row>
-    <row r="266" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC265" s="9"/>
+      <c r="AD265" s="9"/>
+      <c r="AE265" s="9"/>
+    </row>
+    <row r="266" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
@@ -9599,8 +10532,11 @@
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
       <c r="AB266" s="9"/>
-    </row>
-    <row r="267" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC266" s="9"/>
+      <c r="AD266" s="9"/>
+      <c r="AE266" s="9"/>
+    </row>
+    <row r="267" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
@@ -9627,8 +10563,11 @@
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
       <c r="AB267" s="9"/>
-    </row>
-    <row r="268" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC267" s="9"/>
+      <c r="AD267" s="9"/>
+      <c r="AE267" s="9"/>
+    </row>
+    <row r="268" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
@@ -9655,8 +10594,11 @@
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
       <c r="AB268" s="9"/>
-    </row>
-    <row r="269" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC268" s="9"/>
+      <c r="AD268" s="9"/>
+      <c r="AE268" s="9"/>
+    </row>
+    <row r="269" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
@@ -9683,8 +10625,11 @@
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
       <c r="AB269" s="9"/>
-    </row>
-    <row r="270" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC269" s="9"/>
+      <c r="AD269" s="9"/>
+      <c r="AE269" s="9"/>
+    </row>
+    <row r="270" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
@@ -9711,8 +10656,11 @@
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
       <c r="AB270" s="9"/>
-    </row>
-    <row r="271" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC270" s="9"/>
+      <c r="AD270" s="9"/>
+      <c r="AE270" s="9"/>
+    </row>
+    <row r="271" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -9739,8 +10687,11 @@
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
       <c r="AB271" s="9"/>
-    </row>
-    <row r="272" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC271" s="9"/>
+      <c r="AD271" s="9"/>
+      <c r="AE271" s="9"/>
+    </row>
+    <row r="272" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -9767,8 +10718,11 @@
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
       <c r="AB272" s="9"/>
-    </row>
-    <row r="273" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC272" s="9"/>
+      <c r="AD272" s="9"/>
+      <c r="AE272" s="9"/>
+    </row>
+    <row r="273" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
@@ -9795,8 +10749,11 @@
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
       <c r="AB273" s="9"/>
-    </row>
-    <row r="274" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC273" s="9"/>
+      <c r="AD273" s="9"/>
+      <c r="AE273" s="9"/>
+    </row>
+    <row r="274" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
@@ -9823,8 +10780,11 @@
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
       <c r="AB274" s="9"/>
-    </row>
-    <row r="275" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC274" s="9"/>
+      <c r="AD274" s="9"/>
+      <c r="AE274" s="9"/>
+    </row>
+    <row r="275" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
@@ -9851,8 +10811,11 @@
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
       <c r="AB275" s="9"/>
-    </row>
-    <row r="276" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC275" s="9"/>
+      <c r="AD275" s="9"/>
+      <c r="AE275" s="9"/>
+    </row>
+    <row r="276" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
@@ -9879,8 +10842,11 @@
       <c r="Z276" s="9"/>
       <c r="AA276" s="9"/>
       <c r="AB276" s="9"/>
-    </row>
-    <row r="277" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC276" s="9"/>
+      <c r="AD276" s="9"/>
+      <c r="AE276" s="9"/>
+    </row>
+    <row r="277" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
@@ -9907,8 +10873,11 @@
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
       <c r="AB277" s="9"/>
-    </row>
-    <row r="278" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC277" s="9"/>
+      <c r="AD277" s="9"/>
+      <c r="AE277" s="9"/>
+    </row>
+    <row r="278" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -9935,8 +10904,11 @@
       <c r="Z278" s="9"/>
       <c r="AA278" s="9"/>
       <c r="AB278" s="9"/>
-    </row>
-    <row r="279" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC278" s="9"/>
+      <c r="AD278" s="9"/>
+      <c r="AE278" s="9"/>
+    </row>
+    <row r="279" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -9963,8 +10935,11 @@
       <c r="Z279" s="9"/>
       <c r="AA279" s="9"/>
       <c r="AB279" s="9"/>
-    </row>
-    <row r="280" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC279" s="9"/>
+      <c r="AD279" s="9"/>
+      <c r="AE279" s="9"/>
+    </row>
+    <row r="280" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
@@ -9991,8 +10966,11 @@
       <c r="Z280" s="9"/>
       <c r="AA280" s="9"/>
       <c r="AB280" s="9"/>
-    </row>
-    <row r="281" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC280" s="9"/>
+      <c r="AD280" s="9"/>
+      <c r="AE280" s="9"/>
+    </row>
+    <row r="281" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
@@ -10019,8 +10997,11 @@
       <c r="Z281" s="9"/>
       <c r="AA281" s="9"/>
       <c r="AB281" s="9"/>
-    </row>
-    <row r="282" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC281" s="9"/>
+      <c r="AD281" s="9"/>
+      <c r="AE281" s="9"/>
+    </row>
+    <row r="282" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -10047,8 +11028,11 @@
       <c r="Z282" s="9"/>
       <c r="AA282" s="9"/>
       <c r="AB282" s="9"/>
-    </row>
-    <row r="283" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC282" s="9"/>
+      <c r="AD282" s="9"/>
+      <c r="AE282" s="9"/>
+    </row>
+    <row r="283" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
@@ -10075,8 +11059,11 @@
       <c r="Z283" s="9"/>
       <c r="AA283" s="9"/>
       <c r="AB283" s="9"/>
-    </row>
-    <row r="284" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC283" s="9"/>
+      <c r="AD283" s="9"/>
+      <c r="AE283" s="9"/>
+    </row>
+    <row r="284" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
@@ -10103,8 +11090,11 @@
       <c r="Z284" s="9"/>
       <c r="AA284" s="9"/>
       <c r="AB284" s="9"/>
-    </row>
-    <row r="285" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC284" s="9"/>
+      <c r="AD284" s="9"/>
+      <c r="AE284" s="9"/>
+    </row>
+    <row r="285" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
@@ -10131,8 +11121,11 @@
       <c r="Z285" s="9"/>
       <c r="AA285" s="9"/>
       <c r="AB285" s="9"/>
-    </row>
-    <row r="286" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC285" s="9"/>
+      <c r="AD285" s="9"/>
+      <c r="AE285" s="9"/>
+    </row>
+    <row r="286" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
@@ -10159,8 +11152,11 @@
       <c r="Z286" s="9"/>
       <c r="AA286" s="9"/>
       <c r="AB286" s="9"/>
-    </row>
-    <row r="287" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC286" s="9"/>
+      <c r="AD286" s="9"/>
+      <c r="AE286" s="9"/>
+    </row>
+    <row r="287" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
@@ -10187,8 +11183,11 @@
       <c r="Z287" s="9"/>
       <c r="AA287" s="9"/>
       <c r="AB287" s="9"/>
-    </row>
-    <row r="288" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC287" s="9"/>
+      <c r="AD287" s="9"/>
+      <c r="AE287" s="9"/>
+    </row>
+    <row r="288" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -10215,8 +11214,11 @@
       <c r="Z288" s="9"/>
       <c r="AA288" s="9"/>
       <c r="AB288" s="9"/>
-    </row>
-    <row r="289" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC288" s="9"/>
+      <c r="AD288" s="9"/>
+      <c r="AE288" s="9"/>
+    </row>
+    <row r="289" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C289" s="9"/>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -10243,8 +11245,11 @@
       <c r="Z289" s="9"/>
       <c r="AA289" s="9"/>
       <c r="AB289" s="9"/>
-    </row>
-    <row r="290" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC289" s="9"/>
+      <c r="AD289" s="9"/>
+      <c r="AE289" s="9"/>
+    </row>
+    <row r="290" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C290" s="9"/>
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
@@ -10271,8 +11276,11 @@
       <c r="Z290" s="9"/>
       <c r="AA290" s="9"/>
       <c r="AB290" s="9"/>
-    </row>
-    <row r="291" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC290" s="9"/>
+      <c r="AD290" s="9"/>
+      <c r="AE290" s="9"/>
+    </row>
+    <row r="291" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C291" s="9"/>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
@@ -10299,8 +11307,11 @@
       <c r="Z291" s="9"/>
       <c r="AA291" s="9"/>
       <c r="AB291" s="9"/>
-    </row>
-    <row r="292" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC291" s="9"/>
+      <c r="AD291" s="9"/>
+      <c r="AE291" s="9"/>
+    </row>
+    <row r="292" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C292" s="9"/>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
@@ -10327,8 +11338,11 @@
       <c r="Z292" s="9"/>
       <c r="AA292" s="9"/>
       <c r="AB292" s="9"/>
-    </row>
-    <row r="293" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC292" s="9"/>
+      <c r="AD292" s="9"/>
+      <c r="AE292" s="9"/>
+    </row>
+    <row r="293" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C293" s="9"/>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
@@ -10355,8 +11369,11 @@
       <c r="Z293" s="9"/>
       <c r="AA293" s="9"/>
       <c r="AB293" s="9"/>
-    </row>
-    <row r="294" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC293" s="9"/>
+      <c r="AD293" s="9"/>
+      <c r="AE293" s="9"/>
+    </row>
+    <row r="294" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C294" s="9"/>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
@@ -10383,8 +11400,11 @@
       <c r="Z294" s="9"/>
       <c r="AA294" s="9"/>
       <c r="AB294" s="9"/>
-    </row>
-    <row r="295" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC294" s="9"/>
+      <c r="AD294" s="9"/>
+      <c r="AE294" s="9"/>
+    </row>
+    <row r="295" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
@@ -10411,8 +11431,11 @@
       <c r="Z295" s="9"/>
       <c r="AA295" s="9"/>
       <c r="AB295" s="9"/>
-    </row>
-    <row r="296" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC295" s="9"/>
+      <c r="AD295" s="9"/>
+      <c r="AE295" s="9"/>
+    </row>
+    <row r="296" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C296" s="9"/>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -10439,8 +11462,11 @@
       <c r="Z296" s="9"/>
       <c r="AA296" s="9"/>
       <c r="AB296" s="9"/>
-    </row>
-    <row r="297" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC296" s="9"/>
+      <c r="AD296" s="9"/>
+      <c r="AE296" s="9"/>
+    </row>
+    <row r="297" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C297" s="9"/>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
@@ -10467,8 +11493,11 @@
       <c r="Z297" s="9"/>
       <c r="AA297" s="9"/>
       <c r="AB297" s="9"/>
-    </row>
-    <row r="298" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC297" s="9"/>
+      <c r="AD297" s="9"/>
+      <c r="AE297" s="9"/>
+    </row>
+    <row r="298" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
@@ -10495,8 +11524,11 @@
       <c r="Z298" s="9"/>
       <c r="AA298" s="9"/>
       <c r="AB298" s="9"/>
-    </row>
-    <row r="299" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC298" s="9"/>
+      <c r="AD298" s="9"/>
+      <c r="AE298" s="9"/>
+    </row>
+    <row r="299" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
@@ -10523,8 +11555,11 @@
       <c r="Z299" s="9"/>
       <c r="AA299" s="9"/>
       <c r="AB299" s="9"/>
-    </row>
-    <row r="300" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC299" s="9"/>
+      <c r="AD299" s="9"/>
+      <c r="AE299" s="9"/>
+    </row>
+    <row r="300" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
@@ -10551,8 +11586,11 @@
       <c r="Z300" s="9"/>
       <c r="AA300" s="9"/>
       <c r="AB300" s="9"/>
-    </row>
-    <row r="301" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC300" s="9"/>
+      <c r="AD300" s="9"/>
+      <c r="AE300" s="9"/>
+    </row>
+    <row r="301" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C301" s="9"/>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
@@ -10579,8 +11617,11 @@
       <c r="Z301" s="9"/>
       <c r="AA301" s="9"/>
       <c r="AB301" s="9"/>
-    </row>
-    <row r="302" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC301" s="9"/>
+      <c r="AD301" s="9"/>
+      <c r="AE301" s="9"/>
+    </row>
+    <row r="302" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
@@ -10607,8 +11648,11 @@
       <c r="Z302" s="9"/>
       <c r="AA302" s="9"/>
       <c r="AB302" s="9"/>
-    </row>
-    <row r="303" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC302" s="9"/>
+      <c r="AD302" s="9"/>
+      <c r="AE302" s="9"/>
+    </row>
+    <row r="303" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
       <c r="E303" s="9"/>
@@ -10635,8 +11679,11 @@
       <c r="Z303" s="9"/>
       <c r="AA303" s="9"/>
       <c r="AB303" s="9"/>
-    </row>
-    <row r="304" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC303" s="9"/>
+      <c r="AD303" s="9"/>
+      <c r="AE303" s="9"/>
+    </row>
+    <row r="304" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
@@ -10663,8 +11710,11 @@
       <c r="Z304" s="9"/>
       <c r="AA304" s="9"/>
       <c r="AB304" s="9"/>
-    </row>
-    <row r="305" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC304" s="9"/>
+      <c r="AD304" s="9"/>
+      <c r="AE304" s="9"/>
+    </row>
+    <row r="305" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C305" s="9"/>
       <c r="D305" s="9"/>
       <c r="E305" s="9"/>
@@ -10691,8 +11741,11 @@
       <c r="Z305" s="9"/>
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
-    </row>
-    <row r="306" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC305" s="9"/>
+      <c r="AD305" s="9"/>
+      <c r="AE305" s="9"/>
+    </row>
+    <row r="306" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C306" s="9"/>
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
@@ -10719,8 +11772,11 @@
       <c r="Z306" s="9"/>
       <c r="AA306" s="9"/>
       <c r="AB306" s="9"/>
-    </row>
-    <row r="307" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC306" s="9"/>
+      <c r="AD306" s="9"/>
+      <c r="AE306" s="9"/>
+    </row>
+    <row r="307" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
       <c r="E307" s="9"/>
@@ -10747,8 +11803,11 @@
       <c r="Z307" s="9"/>
       <c r="AA307" s="9"/>
       <c r="AB307" s="9"/>
-    </row>
-    <row r="308" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC307" s="9"/>
+      <c r="AD307" s="9"/>
+      <c r="AE307" s="9"/>
+    </row>
+    <row r="308" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
@@ -10775,8 +11834,11 @@
       <c r="Z308" s="9"/>
       <c r="AA308" s="9"/>
       <c r="AB308" s="9"/>
-    </row>
-    <row r="309" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC308" s="9"/>
+      <c r="AD308" s="9"/>
+      <c r="AE308" s="9"/>
+    </row>
+    <row r="309" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
       <c r="E309" s="9"/>
@@ -10803,8 +11865,11 @@
       <c r="Z309" s="9"/>
       <c r="AA309" s="9"/>
       <c r="AB309" s="9"/>
-    </row>
-    <row r="310" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC309" s="9"/>
+      <c r="AD309" s="9"/>
+      <c r="AE309" s="9"/>
+    </row>
+    <row r="310" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C310" s="9"/>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
@@ -10831,8 +11896,11 @@
       <c r="Z310" s="9"/>
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
-    </row>
-    <row r="311" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC310" s="9"/>
+      <c r="AD310" s="9"/>
+      <c r="AE310" s="9"/>
+    </row>
+    <row r="311" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C311" s="9"/>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
@@ -10859,8 +11927,11 @@
       <c r="Z311" s="9"/>
       <c r="AA311" s="9"/>
       <c r="AB311" s="9"/>
-    </row>
-    <row r="312" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC311" s="9"/>
+      <c r="AD311" s="9"/>
+      <c r="AE311" s="9"/>
+    </row>
+    <row r="312" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C312" s="9"/>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
@@ -10887,8 +11958,11 @@
       <c r="Z312" s="9"/>
       <c r="AA312" s="9"/>
       <c r="AB312" s="9"/>
-    </row>
-    <row r="313" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC312" s="9"/>
+      <c r="AD312" s="9"/>
+      <c r="AE312" s="9"/>
+    </row>
+    <row r="313" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C313" s="9"/>
       <c r="D313" s="9"/>
       <c r="E313" s="9"/>
@@ -10915,8 +11989,11 @@
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
       <c r="AB313" s="9"/>
-    </row>
-    <row r="314" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC313" s="9"/>
+      <c r="AD313" s="9"/>
+      <c r="AE313" s="9"/>
+    </row>
+    <row r="314" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C314" s="9"/>
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
@@ -10943,8 +12020,11 @@
       <c r="Z314" s="9"/>
       <c r="AA314" s="9"/>
       <c r="AB314" s="9"/>
-    </row>
-    <row r="315" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC314" s="9"/>
+      <c r="AD314" s="9"/>
+      <c r="AE314" s="9"/>
+    </row>
+    <row r="315" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C315" s="9"/>
       <c r="D315" s="9"/>
       <c r="E315" s="9"/>
@@ -10971,8 +12051,11 @@
       <c r="Z315" s="9"/>
       <c r="AA315" s="9"/>
       <c r="AB315" s="9"/>
-    </row>
-    <row r="316" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC315" s="9"/>
+      <c r="AD315" s="9"/>
+      <c r="AE315" s="9"/>
+    </row>
+    <row r="316" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C316" s="9"/>
       <c r="D316" s="9"/>
       <c r="E316" s="9"/>
@@ -10999,8 +12082,11 @@
       <c r="Z316" s="9"/>
       <c r="AA316" s="9"/>
       <c r="AB316" s="9"/>
-    </row>
-    <row r="317" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC316" s="9"/>
+      <c r="AD316" s="9"/>
+      <c r="AE316" s="9"/>
+    </row>
+    <row r="317" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C317" s="9"/>
       <c r="D317" s="9"/>
       <c r="E317" s="9"/>
@@ -11027,8 +12113,11 @@
       <c r="Z317" s="9"/>
       <c r="AA317" s="9"/>
       <c r="AB317" s="9"/>
-    </row>
-    <row r="318" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC317" s="9"/>
+      <c r="AD317" s="9"/>
+      <c r="AE317" s="9"/>
+    </row>
+    <row r="318" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C318" s="9"/>
       <c r="D318" s="9"/>
       <c r="E318" s="9"/>
@@ -11055,8 +12144,11 @@
       <c r="Z318" s="9"/>
       <c r="AA318" s="9"/>
       <c r="AB318" s="9"/>
-    </row>
-    <row r="319" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC318" s="9"/>
+      <c r="AD318" s="9"/>
+      <c r="AE318" s="9"/>
+    </row>
+    <row r="319" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C319" s="9"/>
       <c r="D319" s="9"/>
       <c r="E319" s="9"/>
@@ -11083,8 +12175,11 @@
       <c r="Z319" s="9"/>
       <c r="AA319" s="9"/>
       <c r="AB319" s="9"/>
-    </row>
-    <row r="320" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC319" s="9"/>
+      <c r="AD319" s="9"/>
+      <c r="AE319" s="9"/>
+    </row>
+    <row r="320" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C320" s="9"/>
       <c r="D320" s="9"/>
       <c r="E320" s="9"/>
@@ -11111,8 +12206,11 @@
       <c r="Z320" s="9"/>
       <c r="AA320" s="9"/>
       <c r="AB320" s="9"/>
-    </row>
-    <row r="321" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC320" s="9"/>
+      <c r="AD320" s="9"/>
+      <c r="AE320" s="9"/>
+    </row>
+    <row r="321" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
       <c r="E321" s="9"/>
@@ -11139,8 +12237,11 @@
       <c r="Z321" s="9"/>
       <c r="AA321" s="9"/>
       <c r="AB321" s="9"/>
-    </row>
-    <row r="322" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC321" s="9"/>
+      <c r="AD321" s="9"/>
+      <c r="AE321" s="9"/>
+    </row>
+    <row r="322" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
@@ -11167,8 +12268,11 @@
       <c r="Z322" s="9"/>
       <c r="AA322" s="9"/>
       <c r="AB322" s="9"/>
-    </row>
-    <row r="323" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC322" s="9"/>
+      <c r="AD322" s="9"/>
+      <c r="AE322" s="9"/>
+    </row>
+    <row r="323" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
       <c r="E323" s="9"/>
@@ -11195,8 +12299,11 @@
       <c r="Z323" s="9"/>
       <c r="AA323" s="9"/>
       <c r="AB323" s="9"/>
-    </row>
-    <row r="324" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC323" s="9"/>
+      <c r="AD323" s="9"/>
+      <c r="AE323" s="9"/>
+    </row>
+    <row r="324" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
       <c r="E324" s="9"/>
@@ -11223,8 +12330,11 @@
       <c r="Z324" s="9"/>
       <c r="AA324" s="9"/>
       <c r="AB324" s="9"/>
-    </row>
-    <row r="325" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC324" s="9"/>
+      <c r="AD324" s="9"/>
+      <c r="AE324" s="9"/>
+    </row>
+    <row r="325" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
       <c r="E325" s="9"/>
@@ -11251,8 +12361,11 @@
       <c r="Z325" s="9"/>
       <c r="AA325" s="9"/>
       <c r="AB325" s="9"/>
-    </row>
-    <row r="326" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC325" s="9"/>
+      <c r="AD325" s="9"/>
+      <c r="AE325" s="9"/>
+    </row>
+    <row r="326" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C326" s="9"/>
       <c r="D326" s="9"/>
       <c r="E326" s="9"/>
@@ -11279,8 +12392,11 @@
       <c r="Z326" s="9"/>
       <c r="AA326" s="9"/>
       <c r="AB326" s="9"/>
-    </row>
-    <row r="327" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC326" s="9"/>
+      <c r="AD326" s="9"/>
+      <c r="AE326" s="9"/>
+    </row>
+    <row r="327" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C327" s="9"/>
       <c r="D327" s="9"/>
       <c r="E327" s="9"/>
@@ -11307,8 +12423,11 @@
       <c r="Z327" s="9"/>
       <c r="AA327" s="9"/>
       <c r="AB327" s="9"/>
-    </row>
-    <row r="328" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC327" s="9"/>
+      <c r="AD327" s="9"/>
+      <c r="AE327" s="9"/>
+    </row>
+    <row r="328" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C328" s="9"/>
       <c r="D328" s="9"/>
       <c r="E328" s="9"/>
@@ -11323,11 +12442,14 @@
       <c r="N328" s="9"/>
       <c r="O328" s="9"/>
       <c r="P328" s="9"/>
-      <c r="Q328" s="3"/>
-      <c r="R328" s="3"/>
-      <c r="S328" s="3"/>
-    </row>
-    <row r="329" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Q328" s="9"/>
+      <c r="R328" s="9"/>
+      <c r="S328" s="9"/>
+      <c r="T328" s="3"/>
+      <c r="U328" s="3"/>
+      <c r="V328" s="3"/>
+    </row>
+    <row r="329" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
       <c r="E329" s="9"/>
@@ -11342,11 +12464,14 @@
       <c r="N329" s="9"/>
       <c r="O329" s="9"/>
       <c r="P329" s="9"/>
-      <c r="Q329" s="3"/>
-      <c r="R329" s="3"/>
-      <c r="S329" s="3"/>
-    </row>
-    <row r="330" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Q329" s="9"/>
+      <c r="R329" s="9"/>
+      <c r="S329" s="9"/>
+      <c r="T329" s="3"/>
+      <c r="U329" s="3"/>
+      <c r="V329" s="3"/>
+    </row>
+    <row r="330" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C330" s="9"/>
       <c r="D330" s="9"/>
       <c r="E330" s="9"/>
@@ -11361,11 +12486,14 @@
       <c r="N330" s="9"/>
       <c r="O330" s="9"/>
       <c r="P330" s="9"/>
-      <c r="Q330" s="3"/>
-      <c r="R330" s="3"/>
-      <c r="S330" s="3"/>
-    </row>
-    <row r="331" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Q330" s="9"/>
+      <c r="R330" s="9"/>
+      <c r="S330" s="9"/>
+      <c r="T330" s="3"/>
+      <c r="U330" s="3"/>
+      <c r="V330" s="3"/>
+    </row>
+    <row r="331" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C331" s="9"/>
       <c r="D331" s="9"/>
       <c r="E331" s="9"/>
@@ -11380,11 +12508,14 @@
       <c r="N331" s="9"/>
       <c r="O331" s="9"/>
       <c r="P331" s="9"/>
-      <c r="Q331" s="3"/>
-      <c r="R331" s="3"/>
-      <c r="S331" s="3"/>
-    </row>
-    <row r="332" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Q331" s="9"/>
+      <c r="R331" s="9"/>
+      <c r="S331" s="9"/>
+      <c r="T331" s="3"/>
+      <c r="U331" s="3"/>
+      <c r="V331" s="3"/>
+    </row>
+    <row r="332" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
       <c r="E332" s="9"/>
@@ -11399,11 +12530,14 @@
       <c r="N332" s="9"/>
       <c r="O332" s="9"/>
       <c r="P332" s="9"/>
-      <c r="Q332" s="3"/>
-      <c r="R332" s="3"/>
-      <c r="S332" s="3"/>
-    </row>
-    <row r="333" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Q332" s="9"/>
+      <c r="R332" s="9"/>
+      <c r="S332" s="9"/>
+      <c r="T332" s="3"/>
+      <c r="U332" s="3"/>
+      <c r="V332" s="3"/>
+    </row>
+    <row r="333" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
       <c r="E333" s="9"/>
@@ -11418,11 +12552,14 @@
       <c r="N333" s="9"/>
       <c r="O333" s="9"/>
       <c r="P333" s="9"/>
-      <c r="Q333" s="3"/>
-      <c r="R333" s="3"/>
-      <c r="S333" s="3"/>
-    </row>
-    <row r="334" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Q333" s="9"/>
+      <c r="R333" s="9"/>
+      <c r="S333" s="9"/>
+      <c r="T333" s="3"/>
+      <c r="U333" s="3"/>
+      <c r="V333" s="3"/>
+    </row>
+    <row r="334" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
       <c r="E334" s="9"/>
@@ -11437,11 +12574,14 @@
       <c r="N334" s="9"/>
       <c r="O334" s="9"/>
       <c r="P334" s="9"/>
-      <c r="Q334" s="3"/>
-      <c r="R334" s="3"/>
-      <c r="S334" s="3"/>
-    </row>
-    <row r="335" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Q334" s="9"/>
+      <c r="R334" s="9"/>
+      <c r="S334" s="9"/>
+      <c r="T334" s="3"/>
+      <c r="U334" s="3"/>
+      <c r="V334" s="3"/>
+    </row>
+    <row r="335" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
       <c r="E335" s="9"/>
@@ -11456,11 +12596,14 @@
       <c r="N335" s="9"/>
       <c r="O335" s="9"/>
       <c r="P335" s="9"/>
-      <c r="Q335" s="3"/>
-      <c r="R335" s="3"/>
-      <c r="S335" s="3"/>
-    </row>
-    <row r="336" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="Q335" s="9"/>
+      <c r="R335" s="9"/>
+      <c r="S335" s="9"/>
+      <c r="T335" s="3"/>
+      <c r="U335" s="3"/>
+      <c r="V335" s="3"/>
+    </row>
+    <row r="336" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
       <c r="E336" s="9"/>
@@ -11475,11 +12618,14 @@
       <c r="N336" s="9"/>
       <c r="O336" s="9"/>
       <c r="P336" s="9"/>
-      <c r="Q336" s="3"/>
-      <c r="R336" s="3"/>
-      <c r="S336" s="3"/>
-    </row>
-    <row r="337" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q336" s="9"/>
+      <c r="R336" s="9"/>
+      <c r="S336" s="9"/>
+      <c r="T336" s="3"/>
+      <c r="U336" s="3"/>
+      <c r="V336" s="3"/>
+    </row>
+    <row r="337" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
       <c r="E337" s="9"/>
@@ -11494,11 +12640,14 @@
       <c r="N337" s="9"/>
       <c r="O337" s="9"/>
       <c r="P337" s="9"/>
-      <c r="Q337" s="3"/>
-      <c r="R337" s="3"/>
-      <c r="S337" s="3"/>
-    </row>
-    <row r="338" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q337" s="9"/>
+      <c r="R337" s="9"/>
+      <c r="S337" s="9"/>
+      <c r="T337" s="3"/>
+      <c r="U337" s="3"/>
+      <c r="V337" s="3"/>
+    </row>
+    <row r="338" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
       <c r="E338" s="9"/>
@@ -11513,11 +12662,14 @@
       <c r="N338" s="9"/>
       <c r="O338" s="9"/>
       <c r="P338" s="9"/>
-      <c r="Q338" s="3"/>
-      <c r="R338" s="3"/>
-      <c r="S338" s="3"/>
-    </row>
-    <row r="339" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q338" s="9"/>
+      <c r="R338" s="9"/>
+      <c r="S338" s="9"/>
+      <c r="T338" s="3"/>
+      <c r="U338" s="3"/>
+      <c r="V338" s="3"/>
+    </row>
+    <row r="339" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
       <c r="E339" s="9"/>
@@ -11532,11 +12684,14 @@
       <c r="N339" s="9"/>
       <c r="O339" s="9"/>
       <c r="P339" s="9"/>
-      <c r="Q339" s="3"/>
-      <c r="R339" s="3"/>
-      <c r="S339" s="3"/>
-    </row>
-    <row r="340" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q339" s="9"/>
+      <c r="R339" s="9"/>
+      <c r="S339" s="9"/>
+      <c r="T339" s="3"/>
+      <c r="U339" s="3"/>
+      <c r="V339" s="3"/>
+    </row>
+    <row r="340" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
       <c r="E340" s="9"/>
@@ -11551,11 +12706,14 @@
       <c r="N340" s="9"/>
       <c r="O340" s="9"/>
       <c r="P340" s="9"/>
-      <c r="Q340" s="3"/>
-      <c r="R340" s="3"/>
-      <c r="S340" s="3"/>
-    </row>
-    <row r="341" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q340" s="9"/>
+      <c r="R340" s="9"/>
+      <c r="S340" s="9"/>
+      <c r="T340" s="3"/>
+      <c r="U340" s="3"/>
+      <c r="V340" s="3"/>
+    </row>
+    <row r="341" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
       <c r="E341" s="9"/>
@@ -11570,11 +12728,14 @@
       <c r="N341" s="9"/>
       <c r="O341" s="9"/>
       <c r="P341" s="9"/>
-      <c r="Q341" s="3"/>
-      <c r="R341" s="3"/>
-      <c r="S341" s="3"/>
-    </row>
-    <row r="342" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q341" s="9"/>
+      <c r="R341" s="9"/>
+      <c r="S341" s="9"/>
+      <c r="T341" s="3"/>
+      <c r="U341" s="3"/>
+      <c r="V341" s="3"/>
+    </row>
+    <row r="342" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
       <c r="E342" s="9"/>
@@ -11589,11 +12750,14 @@
       <c r="N342" s="9"/>
       <c r="O342" s="9"/>
       <c r="P342" s="9"/>
-      <c r="Q342" s="3"/>
-      <c r="R342" s="3"/>
-      <c r="S342" s="3"/>
-    </row>
-    <row r="343" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q342" s="9"/>
+      <c r="R342" s="9"/>
+      <c r="S342" s="9"/>
+      <c r="T342" s="3"/>
+      <c r="U342" s="3"/>
+      <c r="V342" s="3"/>
+    </row>
+    <row r="343" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
       <c r="E343" s="9"/>
@@ -11608,11 +12772,14 @@
       <c r="N343" s="9"/>
       <c r="O343" s="9"/>
       <c r="P343" s="9"/>
-      <c r="Q343" s="3"/>
-      <c r="R343" s="3"/>
-      <c r="S343" s="3"/>
-    </row>
-    <row r="344" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q343" s="9"/>
+      <c r="R343" s="9"/>
+      <c r="S343" s="9"/>
+      <c r="T343" s="3"/>
+      <c r="U343" s="3"/>
+      <c r="V343" s="3"/>
+    </row>
+    <row r="344" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
       <c r="E344" s="9"/>
@@ -11627,11 +12794,14 @@
       <c r="N344" s="9"/>
       <c r="O344" s="9"/>
       <c r="P344" s="9"/>
-      <c r="Q344" s="3"/>
-      <c r="R344" s="3"/>
-      <c r="S344" s="3"/>
-    </row>
-    <row r="345" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q344" s="9"/>
+      <c r="R344" s="9"/>
+      <c r="S344" s="9"/>
+      <c r="T344" s="3"/>
+      <c r="U344" s="3"/>
+      <c r="V344" s="3"/>
+    </row>
+    <row r="345" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
       <c r="E345" s="9"/>
@@ -11646,11 +12816,14 @@
       <c r="N345" s="9"/>
       <c r="O345" s="9"/>
       <c r="P345" s="9"/>
-      <c r="Q345" s="3"/>
-      <c r="R345" s="3"/>
-      <c r="S345" s="3"/>
-    </row>
-    <row r="346" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q345" s="9"/>
+      <c r="R345" s="9"/>
+      <c r="S345" s="9"/>
+      <c r="T345" s="3"/>
+      <c r="U345" s="3"/>
+      <c r="V345" s="3"/>
+    </row>
+    <row r="346" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
       <c r="E346" s="9"/>
@@ -11665,11 +12838,14 @@
       <c r="N346" s="9"/>
       <c r="O346" s="9"/>
       <c r="P346" s="9"/>
-      <c r="Q346" s="3"/>
-      <c r="R346" s="3"/>
-      <c r="S346" s="3"/>
-    </row>
-    <row r="347" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q346" s="9"/>
+      <c r="R346" s="9"/>
+      <c r="S346" s="9"/>
+      <c r="T346" s="3"/>
+      <c r="U346" s="3"/>
+      <c r="V346" s="3"/>
+    </row>
+    <row r="347" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
       <c r="E347" s="9"/>
@@ -11684,11 +12860,14 @@
       <c r="N347" s="9"/>
       <c r="O347" s="9"/>
       <c r="P347" s="9"/>
-      <c r="Q347" s="3"/>
-      <c r="R347" s="3"/>
-      <c r="S347" s="3"/>
-    </row>
-    <row r="348" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q347" s="9"/>
+      <c r="R347" s="9"/>
+      <c r="S347" s="9"/>
+      <c r="T347" s="3"/>
+      <c r="U347" s="3"/>
+      <c r="V347" s="3"/>
+    </row>
+    <row r="348" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
       <c r="E348" s="9"/>
@@ -11703,11 +12882,14 @@
       <c r="N348" s="9"/>
       <c r="O348" s="9"/>
       <c r="P348" s="9"/>
-      <c r="Q348" s="3"/>
-      <c r="R348" s="3"/>
-      <c r="S348" s="3"/>
-    </row>
-    <row r="349" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q348" s="9"/>
+      <c r="R348" s="9"/>
+      <c r="S348" s="9"/>
+      <c r="T348" s="3"/>
+      <c r="U348" s="3"/>
+      <c r="V348" s="3"/>
+    </row>
+    <row r="349" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
       <c r="E349" s="9"/>
@@ -11722,11 +12904,14 @@
       <c r="N349" s="9"/>
       <c r="O349" s="9"/>
       <c r="P349" s="9"/>
-      <c r="Q349" s="3"/>
-      <c r="R349" s="3"/>
-      <c r="S349" s="3"/>
-    </row>
-    <row r="350" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q349" s="9"/>
+      <c r="R349" s="9"/>
+      <c r="S349" s="9"/>
+      <c r="T349" s="3"/>
+      <c r="U349" s="3"/>
+      <c r="V349" s="3"/>
+    </row>
+    <row r="350" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
       <c r="E350" s="9"/>
@@ -11741,11 +12926,14 @@
       <c r="N350" s="9"/>
       <c r="O350" s="9"/>
       <c r="P350" s="9"/>
-      <c r="Q350" s="3"/>
-      <c r="R350" s="3"/>
-      <c r="S350" s="3"/>
-    </row>
-    <row r="351" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q350" s="9"/>
+      <c r="R350" s="9"/>
+      <c r="S350" s="9"/>
+      <c r="T350" s="3"/>
+      <c r="U350" s="3"/>
+      <c r="V350" s="3"/>
+    </row>
+    <row r="351" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
       <c r="E351" s="9"/>
@@ -11760,11 +12948,14 @@
       <c r="N351" s="9"/>
       <c r="O351" s="9"/>
       <c r="P351" s="9"/>
-      <c r="Q351" s="3"/>
-      <c r="R351" s="3"/>
-      <c r="S351" s="3"/>
-    </row>
-    <row r="352" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q351" s="9"/>
+      <c r="R351" s="9"/>
+      <c r="S351" s="9"/>
+      <c r="T351" s="3"/>
+      <c r="U351" s="3"/>
+      <c r="V351" s="3"/>
+    </row>
+    <row r="352" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
       <c r="E352" s="9"/>
@@ -11779,11 +12970,14 @@
       <c r="N352" s="9"/>
       <c r="O352" s="9"/>
       <c r="P352" s="9"/>
-      <c r="Q352" s="3"/>
-      <c r="R352" s="3"/>
-      <c r="S352" s="3"/>
-    </row>
-    <row r="353" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q352" s="9"/>
+      <c r="R352" s="9"/>
+      <c r="S352" s="9"/>
+      <c r="T352" s="3"/>
+      <c r="U352" s="3"/>
+      <c r="V352" s="3"/>
+    </row>
+    <row r="353" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
       <c r="E353" s="9"/>
@@ -11798,11 +12992,14 @@
       <c r="N353" s="9"/>
       <c r="O353" s="9"/>
       <c r="P353" s="9"/>
-      <c r="Q353" s="3"/>
-      <c r="R353" s="3"/>
-      <c r="S353" s="3"/>
-    </row>
-    <row r="354" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q353" s="9"/>
+      <c r="R353" s="9"/>
+      <c r="S353" s="9"/>
+      <c r="T353" s="3"/>
+      <c r="U353" s="3"/>
+      <c r="V353" s="3"/>
+    </row>
+    <row r="354" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
       <c r="E354" s="9"/>
@@ -11817,11 +13014,14 @@
       <c r="N354" s="9"/>
       <c r="O354" s="9"/>
       <c r="P354" s="9"/>
-      <c r="Q354" s="3"/>
-      <c r="R354" s="3"/>
-      <c r="S354" s="3"/>
-    </row>
-    <row r="355" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q354" s="9"/>
+      <c r="R354" s="9"/>
+      <c r="S354" s="9"/>
+      <c r="T354" s="3"/>
+      <c r="U354" s="3"/>
+      <c r="V354" s="3"/>
+    </row>
+    <row r="355" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
       <c r="E355" s="9"/>
@@ -11836,11 +13036,14 @@
       <c r="N355" s="9"/>
       <c r="O355" s="9"/>
       <c r="P355" s="9"/>
-      <c r="Q355" s="3"/>
-      <c r="R355" s="3"/>
-      <c r="S355" s="3"/>
-    </row>
-    <row r="356" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q355" s="9"/>
+      <c r="R355" s="9"/>
+      <c r="S355" s="9"/>
+      <c r="T355" s="3"/>
+      <c r="U355" s="3"/>
+      <c r="V355" s="3"/>
+    </row>
+    <row r="356" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
       <c r="E356" s="9"/>
@@ -11855,11 +13058,14 @@
       <c r="N356" s="9"/>
       <c r="O356" s="9"/>
       <c r="P356" s="9"/>
-      <c r="Q356" s="3"/>
-      <c r="R356" s="3"/>
-      <c r="S356" s="3"/>
-    </row>
-    <row r="357" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q356" s="9"/>
+      <c r="R356" s="9"/>
+      <c r="S356" s="9"/>
+      <c r="T356" s="3"/>
+      <c r="U356" s="3"/>
+      <c r="V356" s="3"/>
+    </row>
+    <row r="357" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
       <c r="E357" s="9"/>
@@ -11874,11 +13080,14 @@
       <c r="N357" s="9"/>
       <c r="O357" s="9"/>
       <c r="P357" s="9"/>
-      <c r="Q357" s="3"/>
-      <c r="R357" s="3"/>
-      <c r="S357" s="3"/>
-    </row>
-    <row r="358" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q357" s="9"/>
+      <c r="R357" s="9"/>
+      <c r="S357" s="9"/>
+      <c r="T357" s="3"/>
+      <c r="U357" s="3"/>
+      <c r="V357" s="3"/>
+    </row>
+    <row r="358" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
       <c r="E358" s="9"/>
@@ -11893,11 +13102,14 @@
       <c r="N358" s="9"/>
       <c r="O358" s="9"/>
       <c r="P358" s="9"/>
-      <c r="Q358" s="3"/>
-      <c r="R358" s="3"/>
-      <c r="S358" s="3"/>
-    </row>
-    <row r="359" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q358" s="9"/>
+      <c r="R358" s="9"/>
+      <c r="S358" s="9"/>
+      <c r="T358" s="3"/>
+      <c r="U358" s="3"/>
+      <c r="V358" s="3"/>
+    </row>
+    <row r="359" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
       <c r="E359" s="9"/>
@@ -11912,11 +13124,14 @@
       <c r="N359" s="9"/>
       <c r="O359" s="9"/>
       <c r="P359" s="9"/>
-      <c r="Q359" s="3"/>
-      <c r="R359" s="3"/>
-      <c r="S359" s="3"/>
-    </row>
-    <row r="360" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q359" s="9"/>
+      <c r="R359" s="9"/>
+      <c r="S359" s="9"/>
+      <c r="T359" s="3"/>
+      <c r="U359" s="3"/>
+      <c r="V359" s="3"/>
+    </row>
+    <row r="360" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
       <c r="E360" s="9"/>
@@ -11931,11 +13146,14 @@
       <c r="N360" s="9"/>
       <c r="O360" s="9"/>
       <c r="P360" s="9"/>
-      <c r="Q360" s="3"/>
-      <c r="R360" s="3"/>
-      <c r="S360" s="3"/>
-    </row>
-    <row r="361" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q360" s="9"/>
+      <c r="R360" s="9"/>
+      <c r="S360" s="9"/>
+      <c r="T360" s="3"/>
+      <c r="U360" s="3"/>
+      <c r="V360" s="3"/>
+    </row>
+    <row r="361" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
       <c r="E361" s="9"/>
@@ -11950,11 +13168,14 @@
       <c r="N361" s="9"/>
       <c r="O361" s="9"/>
       <c r="P361" s="9"/>
-      <c r="Q361" s="3"/>
-      <c r="R361" s="3"/>
-      <c r="S361" s="3"/>
-    </row>
-    <row r="362" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q361" s="9"/>
+      <c r="R361" s="9"/>
+      <c r="S361" s="9"/>
+      <c r="T361" s="3"/>
+      <c r="U361" s="3"/>
+      <c r="V361" s="3"/>
+    </row>
+    <row r="362" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
       <c r="E362" s="9"/>
@@ -11969,11 +13190,14 @@
       <c r="N362" s="9"/>
       <c r="O362" s="9"/>
       <c r="P362" s="9"/>
-      <c r="Q362" s="3"/>
-      <c r="R362" s="3"/>
-      <c r="S362" s="3"/>
-    </row>
-    <row r="363" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q362" s="9"/>
+      <c r="R362" s="9"/>
+      <c r="S362" s="9"/>
+      <c r="T362" s="3"/>
+      <c r="U362" s="3"/>
+      <c r="V362" s="3"/>
+    </row>
+    <row r="363" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
       <c r="E363" s="9"/>
@@ -11988,11 +13212,14 @@
       <c r="N363" s="9"/>
       <c r="O363" s="9"/>
       <c r="P363" s="9"/>
-      <c r="Q363" s="3"/>
-      <c r="R363" s="3"/>
-      <c r="S363" s="3"/>
-    </row>
-    <row r="364" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q363" s="9"/>
+      <c r="R363" s="9"/>
+      <c r="S363" s="9"/>
+      <c r="T363" s="3"/>
+      <c r="U363" s="3"/>
+      <c r="V363" s="3"/>
+    </row>
+    <row r="364" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
       <c r="E364" s="9"/>
@@ -12007,11 +13234,14 @@
       <c r="N364" s="9"/>
       <c r="O364" s="9"/>
       <c r="P364" s="9"/>
-      <c r="Q364" s="3"/>
-      <c r="R364" s="3"/>
-      <c r="S364" s="3"/>
-    </row>
-    <row r="365" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q364" s="9"/>
+      <c r="R364" s="9"/>
+      <c r="S364" s="9"/>
+      <c r="T364" s="3"/>
+      <c r="U364" s="3"/>
+      <c r="V364" s="3"/>
+    </row>
+    <row r="365" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
       <c r="E365" s="9"/>
@@ -12026,11 +13256,14 @@
       <c r="N365" s="9"/>
       <c r="O365" s="9"/>
       <c r="P365" s="9"/>
-      <c r="Q365" s="3"/>
-      <c r="R365" s="3"/>
-      <c r="S365" s="3"/>
-    </row>
-    <row r="366" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q365" s="9"/>
+      <c r="R365" s="9"/>
+      <c r="S365" s="9"/>
+      <c r="T365" s="3"/>
+      <c r="U365" s="3"/>
+      <c r="V365" s="3"/>
+    </row>
+    <row r="366" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
       <c r="E366" s="9"/>
@@ -12045,11 +13278,14 @@
       <c r="N366" s="9"/>
       <c r="O366" s="9"/>
       <c r="P366" s="9"/>
-      <c r="Q366" s="3"/>
-      <c r="R366" s="3"/>
-      <c r="S366" s="3"/>
-    </row>
-    <row r="367" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q366" s="9"/>
+      <c r="R366" s="9"/>
+      <c r="S366" s="9"/>
+      <c r="T366" s="3"/>
+      <c r="U366" s="3"/>
+      <c r="V366" s="3"/>
+    </row>
+    <row r="367" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
@@ -12064,11 +13300,14 @@
       <c r="N367" s="9"/>
       <c r="O367" s="9"/>
       <c r="P367" s="9"/>
-      <c r="Q367" s="3"/>
-      <c r="R367" s="3"/>
-      <c r="S367" s="3"/>
-    </row>
-    <row r="368" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q367" s="9"/>
+      <c r="R367" s="9"/>
+      <c r="S367" s="9"/>
+      <c r="T367" s="3"/>
+      <c r="U367" s="3"/>
+      <c r="V367" s="3"/>
+    </row>
+    <row r="368" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
       <c r="E368" s="9"/>
@@ -12083,11 +13322,14 @@
       <c r="N368" s="9"/>
       <c r="O368" s="9"/>
       <c r="P368" s="9"/>
-      <c r="Q368" s="3"/>
-      <c r="R368" s="3"/>
-      <c r="S368" s="3"/>
-    </row>
-    <row r="369" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q368" s="9"/>
+      <c r="R368" s="9"/>
+      <c r="S368" s="9"/>
+      <c r="T368" s="3"/>
+      <c r="U368" s="3"/>
+      <c r="V368" s="3"/>
+    </row>
+    <row r="369" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
       <c r="E369" s="9"/>
@@ -12102,11 +13344,14 @@
       <c r="N369" s="9"/>
       <c r="O369" s="9"/>
       <c r="P369" s="9"/>
-      <c r="Q369" s="3"/>
-      <c r="R369" s="3"/>
-      <c r="S369" s="3"/>
-    </row>
-    <row r="370" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q369" s="9"/>
+      <c r="R369" s="9"/>
+      <c r="S369" s="9"/>
+      <c r="T369" s="3"/>
+      <c r="U369" s="3"/>
+      <c r="V369" s="3"/>
+    </row>
+    <row r="370" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
       <c r="E370" s="9"/>
@@ -12121,11 +13366,14 @@
       <c r="N370" s="9"/>
       <c r="O370" s="9"/>
       <c r="P370" s="9"/>
-      <c r="Q370" s="3"/>
-      <c r="R370" s="3"/>
-      <c r="S370" s="3"/>
-    </row>
-    <row r="371" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q370" s="9"/>
+      <c r="R370" s="9"/>
+      <c r="S370" s="9"/>
+      <c r="T370" s="3"/>
+      <c r="U370" s="3"/>
+      <c r="V370" s="3"/>
+    </row>
+    <row r="371" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
       <c r="E371" s="9"/>
@@ -12140,11 +13388,14 @@
       <c r="N371" s="9"/>
       <c r="O371" s="9"/>
       <c r="P371" s="9"/>
-      <c r="Q371" s="3"/>
-      <c r="R371" s="3"/>
-      <c r="S371" s="3"/>
-    </row>
-    <row r="372" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q371" s="9"/>
+      <c r="R371" s="9"/>
+      <c r="S371" s="9"/>
+      <c r="T371" s="3"/>
+      <c r="U371" s="3"/>
+      <c r="V371" s="3"/>
+    </row>
+    <row r="372" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
       <c r="E372" s="9"/>
@@ -12159,11 +13410,14 @@
       <c r="N372" s="9"/>
       <c r="O372" s="9"/>
       <c r="P372" s="9"/>
-      <c r="Q372" s="3"/>
-      <c r="R372" s="3"/>
-      <c r="S372" s="3"/>
-    </row>
-    <row r="373" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q372" s="9"/>
+      <c r="R372" s="9"/>
+      <c r="S372" s="9"/>
+      <c r="T372" s="3"/>
+      <c r="U372" s="3"/>
+      <c r="V372" s="3"/>
+    </row>
+    <row r="373" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
       <c r="E373" s="9"/>
@@ -12178,11 +13432,14 @@
       <c r="N373" s="9"/>
       <c r="O373" s="9"/>
       <c r="P373" s="9"/>
-      <c r="Q373" s="3"/>
-      <c r="R373" s="3"/>
-      <c r="S373" s="3"/>
-    </row>
-    <row r="374" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q373" s="9"/>
+      <c r="R373" s="9"/>
+      <c r="S373" s="9"/>
+      <c r="T373" s="3"/>
+      <c r="U373" s="3"/>
+      <c r="V373" s="3"/>
+    </row>
+    <row r="374" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
       <c r="E374" s="9"/>
@@ -12197,11 +13454,14 @@
       <c r="N374" s="9"/>
       <c r="O374" s="9"/>
       <c r="P374" s="9"/>
-      <c r="Q374" s="3"/>
-      <c r="R374" s="3"/>
-      <c r="S374" s="3"/>
-    </row>
-    <row r="375" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q374" s="9"/>
+      <c r="R374" s="9"/>
+      <c r="S374" s="9"/>
+      <c r="T374" s="3"/>
+      <c r="U374" s="3"/>
+      <c r="V374" s="3"/>
+    </row>
+    <row r="375" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
       <c r="E375" s="9"/>
@@ -12216,11 +13476,14 @@
       <c r="N375" s="9"/>
       <c r="O375" s="9"/>
       <c r="P375" s="9"/>
-      <c r="Q375" s="3"/>
-      <c r="R375" s="3"/>
-      <c r="S375" s="3"/>
-    </row>
-    <row r="376" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q375" s="9"/>
+      <c r="R375" s="9"/>
+      <c r="S375" s="9"/>
+      <c r="T375" s="3"/>
+      <c r="U375" s="3"/>
+      <c r="V375" s="3"/>
+    </row>
+    <row r="376" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
       <c r="E376" s="9"/>
@@ -12235,11 +13498,14 @@
       <c r="N376" s="9"/>
       <c r="O376" s="9"/>
       <c r="P376" s="9"/>
-      <c r="Q376" s="3"/>
-      <c r="R376" s="3"/>
-      <c r="S376" s="3"/>
-    </row>
-    <row r="377" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q376" s="9"/>
+      <c r="R376" s="9"/>
+      <c r="S376" s="9"/>
+      <c r="T376" s="3"/>
+      <c r="U376" s="3"/>
+      <c r="V376" s="3"/>
+    </row>
+    <row r="377" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
       <c r="E377" s="9"/>
@@ -12254,11 +13520,14 @@
       <c r="N377" s="9"/>
       <c r="O377" s="9"/>
       <c r="P377" s="9"/>
-      <c r="Q377" s="3"/>
-      <c r="R377" s="3"/>
-      <c r="S377" s="3"/>
-    </row>
-    <row r="378" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q377" s="9"/>
+      <c r="R377" s="9"/>
+      <c r="S377" s="9"/>
+      <c r="T377" s="3"/>
+      <c r="U377" s="3"/>
+      <c r="V377" s="3"/>
+    </row>
+    <row r="378" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
       <c r="E378" s="9"/>
@@ -12273,11 +13542,14 @@
       <c r="N378" s="9"/>
       <c r="O378" s="9"/>
       <c r="P378" s="9"/>
-      <c r="Q378" s="3"/>
-      <c r="R378" s="3"/>
-      <c r="S378" s="3"/>
-    </row>
-    <row r="379" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q378" s="9"/>
+      <c r="R378" s="9"/>
+      <c r="S378" s="9"/>
+      <c r="T378" s="3"/>
+      <c r="U378" s="3"/>
+      <c r="V378" s="3"/>
+    </row>
+    <row r="379" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
       <c r="E379" s="9"/>
@@ -12292,11 +13564,14 @@
       <c r="N379" s="9"/>
       <c r="O379" s="9"/>
       <c r="P379" s="9"/>
-      <c r="Q379" s="3"/>
-      <c r="R379" s="3"/>
-      <c r="S379" s="3"/>
-    </row>
-    <row r="380" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q379" s="9"/>
+      <c r="R379" s="9"/>
+      <c r="S379" s="9"/>
+      <c r="T379" s="3"/>
+      <c r="U379" s="3"/>
+      <c r="V379" s="3"/>
+    </row>
+    <row r="380" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
       <c r="E380" s="9"/>
@@ -12311,11 +13586,14 @@
       <c r="N380" s="9"/>
       <c r="O380" s="9"/>
       <c r="P380" s="9"/>
-      <c r="Q380" s="3"/>
-      <c r="R380" s="3"/>
-      <c r="S380" s="3"/>
-    </row>
-    <row r="381" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q380" s="9"/>
+      <c r="R380" s="9"/>
+      <c r="S380" s="9"/>
+      <c r="T380" s="3"/>
+      <c r="U380" s="3"/>
+      <c r="V380" s="3"/>
+    </row>
+    <row r="381" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
       <c r="E381" s="9"/>
@@ -12330,11 +13608,14 @@
       <c r="N381" s="9"/>
       <c r="O381" s="9"/>
       <c r="P381" s="9"/>
-      <c r="Q381" s="3"/>
-      <c r="R381" s="3"/>
-      <c r="S381" s="3"/>
-    </row>
-    <row r="382" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q381" s="9"/>
+      <c r="R381" s="9"/>
+      <c r="S381" s="9"/>
+      <c r="T381" s="3"/>
+      <c r="U381" s="3"/>
+      <c r="V381" s="3"/>
+    </row>
+    <row r="382" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
       <c r="E382" s="9"/>
@@ -12349,11 +13630,14 @@
       <c r="N382" s="9"/>
       <c r="O382" s="9"/>
       <c r="P382" s="9"/>
-      <c r="Q382" s="3"/>
-      <c r="R382" s="3"/>
-      <c r="S382" s="3"/>
-    </row>
-    <row r="383" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q382" s="9"/>
+      <c r="R382" s="9"/>
+      <c r="S382" s="9"/>
+      <c r="T382" s="3"/>
+      <c r="U382" s="3"/>
+      <c r="V382" s="3"/>
+    </row>
+    <row r="383" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C383" s="9"/>
       <c r="D383" s="9"/>
       <c r="E383" s="9"/>
@@ -12368,11 +13652,14 @@
       <c r="N383" s="9"/>
       <c r="O383" s="9"/>
       <c r="P383" s="9"/>
-      <c r="Q383" s="3"/>
-      <c r="R383" s="3"/>
-      <c r="S383" s="3"/>
-    </row>
-    <row r="384" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q383" s="9"/>
+      <c r="R383" s="9"/>
+      <c r="S383" s="9"/>
+      <c r="T383" s="3"/>
+      <c r="U383" s="3"/>
+      <c r="V383" s="3"/>
+    </row>
+    <row r="384" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
       <c r="E384" s="9"/>
@@ -12387,11 +13674,14 @@
       <c r="N384" s="9"/>
       <c r="O384" s="9"/>
       <c r="P384" s="9"/>
-      <c r="Q384" s="3"/>
-      <c r="R384" s="3"/>
-      <c r="S384" s="3"/>
-    </row>
-    <row r="385" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q384" s="9"/>
+      <c r="R384" s="9"/>
+      <c r="S384" s="9"/>
+      <c r="T384" s="3"/>
+      <c r="U384" s="3"/>
+      <c r="V384" s="3"/>
+    </row>
+    <row r="385" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
       <c r="E385" s="9"/>
@@ -12406,11 +13696,14 @@
       <c r="N385" s="9"/>
       <c r="O385" s="9"/>
       <c r="P385" s="9"/>
-      <c r="Q385" s="3"/>
-      <c r="R385" s="3"/>
-      <c r="S385" s="3"/>
-    </row>
-    <row r="386" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q385" s="9"/>
+      <c r="R385" s="9"/>
+      <c r="S385" s="9"/>
+      <c r="T385" s="3"/>
+      <c r="U385" s="3"/>
+      <c r="V385" s="3"/>
+    </row>
+    <row r="386" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C386" s="9"/>
       <c r="D386" s="9"/>
       <c r="E386" s="9"/>
@@ -12425,11 +13718,14 @@
       <c r="N386" s="9"/>
       <c r="O386" s="9"/>
       <c r="P386" s="9"/>
-      <c r="Q386" s="3"/>
-      <c r="R386" s="3"/>
-      <c r="S386" s="3"/>
-    </row>
-    <row r="387" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q386" s="9"/>
+      <c r="R386" s="9"/>
+      <c r="S386" s="9"/>
+      <c r="T386" s="3"/>
+      <c r="U386" s="3"/>
+      <c r="V386" s="3"/>
+    </row>
+    <row r="387" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C387" s="9"/>
       <c r="D387" s="9"/>
       <c r="E387" s="9"/>
@@ -12444,11 +13740,14 @@
       <c r="N387" s="9"/>
       <c r="O387" s="9"/>
       <c r="P387" s="9"/>
-      <c r="Q387" s="3"/>
-      <c r="R387" s="3"/>
-      <c r="S387" s="3"/>
-    </row>
-    <row r="388" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q387" s="9"/>
+      <c r="R387" s="9"/>
+      <c r="S387" s="9"/>
+      <c r="T387" s="3"/>
+      <c r="U387" s="3"/>
+      <c r="V387" s="3"/>
+    </row>
+    <row r="388" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C388" s="9"/>
       <c r="D388" s="9"/>
       <c r="E388" s="9"/>
@@ -12463,11 +13762,14 @@
       <c r="N388" s="9"/>
       <c r="O388" s="9"/>
       <c r="P388" s="9"/>
-      <c r="Q388" s="3"/>
-      <c r="R388" s="3"/>
-      <c r="S388" s="3"/>
-    </row>
-    <row r="389" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q388" s="9"/>
+      <c r="R388" s="9"/>
+      <c r="S388" s="9"/>
+      <c r="T388" s="3"/>
+      <c r="U388" s="3"/>
+      <c r="V388" s="3"/>
+    </row>
+    <row r="389" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C389" s="9"/>
       <c r="D389" s="9"/>
       <c r="E389" s="9"/>
@@ -12482,11 +13784,14 @@
       <c r="N389" s="9"/>
       <c r="O389" s="9"/>
       <c r="P389" s="9"/>
-      <c r="Q389" s="3"/>
-      <c r="R389" s="3"/>
-      <c r="S389" s="3"/>
-    </row>
-    <row r="390" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="Q389" s="9"/>
+      <c r="R389" s="9"/>
+      <c r="S389" s="9"/>
+      <c r="T389" s="3"/>
+      <c r="U389" s="3"/>
+      <c r="V389" s="3"/>
+    </row>
+    <row r="390" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
       <c r="E390" s="3"/>
@@ -12504,8 +13809,11 @@
       <c r="Q390" s="3"/>
       <c r="R390" s="3"/>
       <c r="S390" s="3"/>
-    </row>
-    <row r="391" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T390" s="3"/>
+      <c r="U390" s="3"/>
+      <c r="V390" s="3"/>
+    </row>
+    <row r="391" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
       <c r="E391" s="3"/>
@@ -12523,6 +13831,9 @@
       <c r="Q391" s="3"/>
       <c r="R391" s="3"/>
       <c r="S391" s="3"/>
+      <c r="T391" s="3"/>
+      <c r="U391" s="3"/>
+      <c r="V391" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
